--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAE857-3B36-46D9-B78C-0605CC0CCC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6EFAF-B763-4522-8F9E-A82CA4AC166F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 2.83" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicios 3.1-" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -109,6 +110,12 @@
   <si>
     <t xml:space="preserve">https://www.banxico.org.mx/SieInternet/consultarDirectorioInternetAction.do?sector=2&amp;accion=consultarCuadro&amp;idCuadro=CR72&amp;locale=es </t>
   </si>
+  <si>
+    <t>Precio($)</t>
+  </si>
+  <si>
+    <t>Cantidad de playeras</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +172,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -311,6 +326,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1076,7 +1094,2435 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de playeras de Ramón en un año.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E09E-4CAE-B239-314B4CA94F10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E09E-4CAE-B239-314B4CA94F10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de playeras</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de playeras de Raúl en un año.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE57-4646-A897-41CF2978C410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$B$19:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE57-4646-A897-41CF2978C410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de playeras</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de playeras de José en un año.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$36:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$B$36:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D1E-4DB3-BC74-5C68102A941F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de playeras</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de playeras de Eurípides en un año.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$53:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$B$53:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E23-4BB8-95E9-BC2A0D44437E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de playeras</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1632,6 +4078,2210 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1665,6 +6315,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8979FB4-6554-40B0-A0BE-1AD8BD19CECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE03BF40-E204-464D-8814-51DD99A7CFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B79B52-DC5A-4FA6-9E7A-15C2A38A86AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83193FF-B154-42BD-A71C-C02B44D21ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1973,7 +6778,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -2892,4 +7697,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4827C6-795B-4E7E-9616-5B8D2BEECDBA}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="B34" s="38"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="B51" s="38"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6EFAF-B763-4522-8F9E-A82CA4AC166F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E92DA6-E386-4E47-8681-CA7BA162111E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -116,17 +116,39 @@
   <si>
     <t>Cantidad de playeras</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bP</t>
+  </si>
+  <si>
+    <t>a-bP</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Demanda de un bien X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +202,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -329,6 +357,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -3362,6 +3393,2095 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> total de playeras en un año.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de playeras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$D$69:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$E$69:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B186-4063-AF21-DB46B9B15588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de playeras</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de un bien X.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demanda de un bien X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$F$94:$F$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$94:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B61B-4353-AAAA-C175D52482DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del bien X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de un bien X.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demanda de un bien X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$F$112:$F$116</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$112:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8910-433A-9631-388C132085E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del bien X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de un bien X.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demanda de un bien X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$F$129:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-'!$A$129:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDAF-4FF2-9928-0F65E23BD22E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del bien X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3562,6 +5682,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5732,6 +8012,2210 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6475,6 +10959,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528ACDF2-A6EE-4D27-BF83-F2E4D7DC8C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E018F9-0B7D-4316-A542-12B860B37D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DEA120-816F-4F25-BCD0-FCC70F0E66FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9FFC79-BFF8-4CF3-8242-FAFEC7B867C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7701,13 +12337,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4827C6-795B-4E7E-9616-5B8D2BEECDBA}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="38">
@@ -7941,13 +12580,730 @@
         <v>40</v>
       </c>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="D67" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="E67" s="38"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>SUMIF($A$69:$A$90,D69,$B$69:$B$90)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <f>SUMIF($A$69:$A$90,D70,$B$69:$B$90)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <f>SUMIF($A$69:$A$90,D71,$B$69:$B$90)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <f>SUMIF($A$69:$A$90,D72,$B$69:$B$90)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <f>SUMIF($A$69:$A$90,D73,$B$69:$B$90)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <f>SUMIF($A$69:$A$90,D74,$B$69:$B$90)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <f>SUMIF($A$69:$A$90,D75,$B$69:$B$90)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>35</v>
+      </c>
+      <c r="E76">
+        <f>SUMIF($A$69:$A$90,D76,$B$69:$B$90)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <f>SUMIF($A$69:$A$90,D77,$B$69:$B$90)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="38">
+        <v>3.6</v>
+      </c>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>60</v>
+      </c>
+      <c r="B94">
+        <v>60</v>
+      </c>
+      <c r="C94" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D94">
+        <f>C94*A94</f>
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <f>B94-D94</f>
+        <v>30</v>
+      </c>
+      <c r="F94">
+        <f>E94</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <v>60</v>
+      </c>
+      <c r="C95" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ref="D95:D98" si="0">C95*A95</f>
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95:E98" si="1">B95-D95</f>
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ref="F95:F98" si="2">E95</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="B96">
+        <v>60</v>
+      </c>
+      <c r="C96" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>60</v>
+      </c>
+      <c r="C97" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>120</v>
+      </c>
+      <c r="B98">
+        <v>60</v>
+      </c>
+      <c r="C98" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="38">
+        <v>3.7</v>
+      </c>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>60</v>
+      </c>
+      <c r="B112">
+        <v>45</v>
+      </c>
+      <c r="C112" s="40">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D112" s="41">
+        <f>C112*A112</f>
+        <v>20</v>
+      </c>
+      <c r="E112" s="41">
+        <f>B112-D112</f>
+        <v>25</v>
+      </c>
+      <c r="F112" s="41">
+        <f>E112</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>80</v>
+      </c>
+      <c r="B113">
+        <v>45</v>
+      </c>
+      <c r="C113" s="40">
+        <f t="shared" ref="C113:C116" si="3">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D113" s="41">
+        <f t="shared" ref="D113:D116" si="4">C113*A113</f>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="E113" s="41">
+        <f t="shared" ref="E113:E116" si="5">B113-D113</f>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="F113" s="41">
+        <f t="shared" ref="F113:F116" si="6">E113</f>
+        <v>18.333333333333336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>90</v>
+      </c>
+      <c r="B114">
+        <v>45</v>
+      </c>
+      <c r="C114" s="40">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D114" s="41">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E114" s="41">
+        <f>B114-D114</f>
+        <v>15</v>
+      </c>
+      <c r="F114" s="41">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>100</v>
+      </c>
+      <c r="B115">
+        <v>45</v>
+      </c>
+      <c r="C115" s="40">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D115" s="41">
+        <f>C115*A115</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="E115" s="41">
+        <f t="shared" si="5"/>
+        <v>11.666666666666671</v>
+      </c>
+      <c r="F115" s="41">
+        <f t="shared" si="6"/>
+        <v>11.666666666666671</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>45</v>
+      </c>
+      <c r="C116" s="40">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D116" s="41">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E116" s="41">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F116" s="41">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="38">
+        <v>3.8</v>
+      </c>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>80</v>
+      </c>
+      <c r="C129" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D129" s="41">
+        <f>C129*A129</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="41">
+        <f>B129-D129</f>
+        <v>80</v>
+      </c>
+      <c r="F129" s="41">
+        <f>E129</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>10</v>
+      </c>
+      <c r="B130">
+        <v>80</v>
+      </c>
+      <c r="C130" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D130" s="41">
+        <f t="shared" ref="D130:D131" si="7">C130*A130</f>
+        <v>1</v>
+      </c>
+      <c r="E130" s="41">
+        <f t="shared" ref="E130" si="8">B130-D130</f>
+        <v>79</v>
+      </c>
+      <c r="F130" s="41">
+        <f t="shared" ref="F130:F133" si="9">E130</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>25</v>
+      </c>
+      <c r="B131">
+        <v>80</v>
+      </c>
+      <c r="C131" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D131" s="41">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="E131" s="41">
+        <f>B131-D131</f>
+        <v>77.5</v>
+      </c>
+      <c r="F131" s="41">
+        <f t="shared" si="9"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>80</v>
+      </c>
+      <c r="B132">
+        <v>80</v>
+      </c>
+      <c r="C132" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D132" s="41">
+        <f>C132*A132</f>
+        <v>8</v>
+      </c>
+      <c r="E132" s="41">
+        <f t="shared" ref="E132:E133" si="10">B132-D132</f>
+        <v>72</v>
+      </c>
+      <c r="F132" s="41">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>150</v>
+      </c>
+      <c r="B133">
+        <v>80</v>
+      </c>
+      <c r="C133" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D133" s="41">
+        <f t="shared" ref="D133" si="11">C133*A133</f>
+        <v>15</v>
+      </c>
+      <c r="E133" s="41">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="F133" s="41">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <sortState ref="D69:D77">
+    <sortCondition ref="D69:D77"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A127:F127"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E92DA6-E386-4E47-8681-CA7BA162111E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ACE91-50BE-4D80-A0B4-B7591B53EF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 2.83" sheetId="1" r:id="rId1"/>
-    <sheet name="Ejercicios 3.1-" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicios 3.1-3.11" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -137,6 +137,27 @@
   <si>
     <t>Demanda de un bien X</t>
   </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>c+dP</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -267,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -354,12 +375,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1125,6 +1147,1554 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de un bien X.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-3.11'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demanda de un bien X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-3.11'!$F$145:$F$149</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-3.11'!$A$145:$A$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73E8-4AC5-BCF0-8ADB66942429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del bien X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Oferta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de un bien X.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-3.11'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demanda de un bien X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-3.11'!$F$161:$F$165</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-3.11'!$A$161:$A$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B97-49E2-860E-4968F10309EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del bien X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500"/>
+              <a:t>Oferta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
+              <a:t> de un bien X.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejercicios 3.1-3.11'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demanda de un bien X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-3.11'!$F$178:$F$182</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ejercicios 3.1-3.11'!$A$178:$A$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E15A-4520-9885-55F3CFCE62FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del bien X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1220,7 +2790,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$B$2</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1254,7 +2824,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$3:$A$8</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1281,7 +2851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$B$3:$B$8</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1318,7 +2888,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$B$2</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1365,7 +2935,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$3:$A$8</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1392,7 +2962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$B$3:$B$8</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1840,7 +3410,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$B$18</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1874,7 +3444,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$19:$A$23</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$19:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1898,7 +3468,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$B$19:$B$23</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$19:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1932,7 +3502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$B$18</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1979,7 +3549,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$19:$A$24</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$19:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2003,7 +3573,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$B$19:$B$24</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$19:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2448,7 +4018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$B$35</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2495,7 +4065,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$36:$A$41</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$36:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2522,7 +4092,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$B$36:$B$41</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$36:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2971,7 +4541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$B$35</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3018,7 +4588,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$53:$A$57</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$53:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3042,7 +4612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$B$53:$B$57</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$B$53:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3488,7 +5058,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$E$68</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$E$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3535,7 +5105,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$D$69:$D$77</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$D$69:$D$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3571,7 +5141,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$E$69:$E$77</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$E$69:$E$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4029,7 +5599,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$A$99</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4076,7 +5646,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$F$94:$F$98</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$F$94:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4100,7 +5670,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$94:$A$98</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$94:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4545,7 +6115,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$A$99</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4592,7 +6162,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$F$112:$F$116</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$F$112:$F$116</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4616,7 +6186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$112:$A$116</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$112:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5061,7 +6631,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ejercicios 3.1-'!$A$99</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5108,7 +6678,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$F$129:$F$133</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$F$129:$F$133</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5132,7 +6702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ejercicios 3.1-'!$A$129:$A$133</c:f>
+              <c:f>'Ejercicios 3.1-3.11'!$A$129:$A$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5522,6 +7092,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6353,6 +8043,1659 @@
       <a:ln>
         <a:noFill/>
       </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -11111,6 +14454,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074485ED-2A05-43F1-BDF6-B6EE77FF4686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B5226F-B21F-4DAC-BD05-4B6670967553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78342177-AA7E-439D-A29B-1606D5943072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12337,10 +15794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4827C6-795B-4E7E-9616-5B8D2BEECDBA}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12349,10 +15806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="38">
+      <c r="A1" s="41">
         <v>3.1</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -12411,10 +15868,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="38">
+      <c r="A17" s="41">
         <v>3.2</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="41"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -12465,10 +15922,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="38">
+      <c r="A34" s="41">
         <v>3.3</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="41"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -12527,10 +15984,10 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="38">
+      <c r="A51" s="41">
         <v>3.4</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="41"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
@@ -12581,14 +16038,14 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="38">
+      <c r="A67" s="41">
         <v>3.5</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="D67" s="38">
+      <c r="B67" s="41"/>
+      <c r="D67" s="41">
         <v>3.5</v>
       </c>
-      <c r="E67" s="38"/>
+      <c r="E67" s="41"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
@@ -12615,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <f>SUMIF($A$69:$A$90,D69,$B$69:$B$90)</f>
+        <f t="shared" ref="E69:E77" si="0">SUMIF($A$69:$A$90,D69,$B$69:$B$90)</f>
         <v>120</v>
       </c>
     </row>
@@ -12630,7 +16087,7 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <f>SUMIF($A$69:$A$90,D70,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -12645,7 +16102,7 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <f>SUMIF($A$69:$A$90,D71,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -12660,7 +16117,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f>SUMIF($A$69:$A$90,D72,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -12675,7 +16132,7 @@
         <v>20</v>
       </c>
       <c r="E73">
-        <f>SUMIF($A$69:$A$90,D73,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -12690,7 +16147,7 @@
         <v>25</v>
       </c>
       <c r="E74">
-        <f>SUMIF($A$69:$A$90,D74,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -12705,7 +16162,7 @@
         <v>30</v>
       </c>
       <c r="E75">
-        <f>SUMIF($A$69:$A$90,D75,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -12720,7 +16177,7 @@
         <v>35</v>
       </c>
       <c r="E76">
-        <f>SUMIF($A$69:$A$90,D76,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -12735,7 +16192,7 @@
         <v>40</v>
       </c>
       <c r="E77">
-        <f>SUMIF($A$69:$A$90,D77,$B$69:$B$90)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -12844,14 +16301,14 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="38">
+      <c r="A92" s="41">
         <v>3.6</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
@@ -12880,7 +16337,7 @@
       <c r="B94">
         <v>60</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="38">
         <v>0.5</v>
       </c>
       <c r="D94">
@@ -12903,19 +16360,19 @@
       <c r="B95">
         <v>60</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="38">
         <v>0.5</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:D98" si="0">C95*A95</f>
+        <f t="shared" ref="D95:D98" si="1">C95*A95</f>
         <v>40</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:E98" si="1">B95-D95</f>
+        <f t="shared" ref="E95:E98" si="2">B95-D95</f>
         <v>20</v>
       </c>
       <c r="F95">
-        <f t="shared" ref="F95:F98" si="2">E95</f>
+        <f t="shared" ref="F95:F98" si="3">E95</f>
         <v>20</v>
       </c>
     </row>
@@ -12926,19 +16383,19 @@
       <c r="B96">
         <v>60</v>
       </c>
-      <c r="C96" s="39">
+      <c r="C96" s="38">
         <v>0.5</v>
       </c>
       <c r="D96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -12949,19 +16406,19 @@
       <c r="B97">
         <v>60</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="38">
         <v>0.5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -12972,19 +16429,19 @@
       <c r="B98">
         <v>60</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="38">
         <v>0.5</v>
       </c>
       <c r="D98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12994,14 +16451,14 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="38">
+      <c r="A110" s="41">
         <v>3.7</v>
       </c>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
@@ -13030,19 +16487,19 @@
       <c r="B112">
         <v>45</v>
       </c>
-      <c r="C112" s="40">
+      <c r="C112" s="39">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D112" s="41">
+      <c r="D112" s="40">
         <f>C112*A112</f>
         <v>20</v>
       </c>
-      <c r="E112" s="41">
+      <c r="E112" s="40">
         <f>B112-D112</f>
         <v>25</v>
       </c>
-      <c r="F112" s="41">
+      <c r="F112" s="40">
         <f>E112</f>
         <v>25</v>
       </c>
@@ -13054,20 +16511,20 @@
       <c r="B113">
         <v>45</v>
       </c>
-      <c r="C113" s="40">
-        <f t="shared" ref="C113:C116" si="3">1/3</f>
+      <c r="C113" s="39">
+        <f t="shared" ref="C113:C116" si="4">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D113" s="41">
-        <f t="shared" ref="D113:D116" si="4">C113*A113</f>
+      <c r="D113" s="40">
+        <f t="shared" ref="D113:D116" si="5">C113*A113</f>
         <v>26.666666666666664</v>
       </c>
-      <c r="E113" s="41">
-        <f t="shared" ref="E113:E116" si="5">B113-D113</f>
+      <c r="E113" s="40">
+        <f t="shared" ref="E113:E116" si="6">B113-D113</f>
         <v>18.333333333333336</v>
       </c>
-      <c r="F113" s="41">
-        <f t="shared" ref="F113:F116" si="6">E113</f>
+      <c r="F113" s="40">
+        <f t="shared" ref="F113:F116" si="7">E113</f>
         <v>18.333333333333336</v>
       </c>
     </row>
@@ -13078,20 +16535,20 @@
       <c r="B114">
         <v>45</v>
       </c>
-      <c r="C114" s="40">
-        <f t="shared" si="3"/>
+      <c r="C114" s="39">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D114" s="41">
-        <f t="shared" si="4"/>
+      <c r="D114" s="40">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="E114" s="41">
+      <c r="E114" s="40">
         <f>B114-D114</f>
         <v>15</v>
       </c>
-      <c r="F114" s="41">
-        <f t="shared" si="6"/>
+      <c r="F114" s="40">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
@@ -13102,20 +16559,20 @@
       <c r="B115">
         <v>45</v>
       </c>
-      <c r="C115" s="40">
-        <f t="shared" si="3"/>
+      <c r="C115" s="39">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D115" s="41">
+      <c r="D115" s="40">
         <f>C115*A115</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="E115" s="41">
-        <f t="shared" si="5"/>
+      <c r="E115" s="40">
+        <f t="shared" si="6"/>
         <v>11.666666666666671</v>
       </c>
-      <c r="F115" s="41">
-        <f t="shared" si="6"/>
+      <c r="F115" s="40">
+        <f t="shared" si="7"/>
         <v>11.666666666666671</v>
       </c>
     </row>
@@ -13126,32 +16583,32 @@
       <c r="B116">
         <v>45</v>
       </c>
-      <c r="C116" s="40">
-        <f t="shared" si="3"/>
+      <c r="C116" s="39">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D116" s="41">
-        <f t="shared" si="4"/>
+      <c r="D116" s="40">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="E116" s="41">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="F116" s="41">
+      <c r="E116" s="40">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="F116" s="40">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="38">
+      <c r="A127" s="41">
         <v>3.8</v>
       </c>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
@@ -13180,18 +16637,18 @@
       <c r="B129">
         <v>80</v>
       </c>
-      <c r="C129" s="40">
+      <c r="C129" s="39">
         <v>0.1</v>
       </c>
-      <c r="D129" s="41">
+      <c r="D129" s="40">
         <f>C129*A129</f>
         <v>0</v>
       </c>
-      <c r="E129" s="41">
+      <c r="E129" s="40">
         <f>B129-D129</f>
         <v>80</v>
       </c>
-      <c r="F129" s="41">
+      <c r="F129" s="40">
         <f>E129</f>
         <v>80</v>
       </c>
@@ -13203,19 +16660,19 @@
       <c r="B130">
         <v>80</v>
       </c>
-      <c r="C130" s="40">
+      <c r="C130" s="39">
         <v>0.1</v>
       </c>
-      <c r="D130" s="41">
-        <f t="shared" ref="D130:D131" si="7">C130*A130</f>
+      <c r="D130" s="40">
+        <f t="shared" ref="D130:D131" si="8">C130*A130</f>
         <v>1</v>
       </c>
-      <c r="E130" s="41">
-        <f t="shared" ref="E130" si="8">B130-D130</f>
+      <c r="E130" s="40">
+        <f t="shared" ref="E130" si="9">B130-D130</f>
         <v>79</v>
       </c>
-      <c r="F130" s="41">
-        <f t="shared" ref="F130:F133" si="9">E130</f>
+      <c r="F130" s="40">
+        <f t="shared" ref="F130:F133" si="10">E130</f>
         <v>79</v>
       </c>
     </row>
@@ -13226,19 +16683,19 @@
       <c r="B131">
         <v>80</v>
       </c>
-      <c r="C131" s="40">
+      <c r="C131" s="39">
         <v>0.1</v>
       </c>
-      <c r="D131" s="41">
-        <f t="shared" si="7"/>
+      <c r="D131" s="40">
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
-      <c r="E131" s="41">
+      <c r="E131" s="40">
         <f>B131-D131</f>
         <v>77.5</v>
       </c>
-      <c r="F131" s="41">
-        <f t="shared" si="9"/>
+      <c r="F131" s="40">
+        <f t="shared" si="10"/>
         <v>77.5</v>
       </c>
     </row>
@@ -13249,19 +16706,19 @@
       <c r="B132">
         <v>80</v>
       </c>
-      <c r="C132" s="40">
+      <c r="C132" s="39">
         <v>0.1</v>
       </c>
-      <c r="D132" s="41">
+      <c r="D132" s="40">
         <f>C132*A132</f>
         <v>8</v>
       </c>
-      <c r="E132" s="41">
-        <f t="shared" ref="E132:E133" si="10">B132-D132</f>
+      <c r="E132" s="40">
+        <f t="shared" ref="E132:E133" si="11">B132-D132</f>
         <v>72</v>
       </c>
-      <c r="F132" s="41">
-        <f t="shared" si="9"/>
+      <c r="F132" s="40">
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
     </row>
@@ -13272,27 +16729,470 @@
       <c r="B133">
         <v>80</v>
       </c>
-      <c r="C133" s="40">
+      <c r="C133" s="39">
         <v>0.1</v>
       </c>
-      <c r="D133" s="41">
-        <f t="shared" ref="D133" si="11">C133*A133</f>
+      <c r="D133" s="40">
+        <f t="shared" ref="D133" si="12">C133*A133</f>
         <v>15</v>
       </c>
-      <c r="E133" s="41">
+      <c r="E133" s="40">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="F133" s="40">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="F133" s="41">
-        <f t="shared" si="9"/>
-        <v>65</v>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>50</v>
+      </c>
+      <c r="B145">
+        <v>220</v>
+      </c>
+      <c r="C145" s="42">
+        <v>4</v>
+      </c>
+      <c r="D145" s="40">
+        <f>C145*A145</f>
+        <v>200</v>
+      </c>
+      <c r="E145" s="40">
+        <f>B145-D145</f>
+        <v>20</v>
+      </c>
+      <c r="F145" s="40">
+        <f>E145</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>40</v>
+      </c>
+      <c r="B146">
+        <v>220</v>
+      </c>
+      <c r="C146" s="42">
+        <v>4</v>
+      </c>
+      <c r="D146" s="40">
+        <f t="shared" ref="D146:D147" si="13">C146*A146</f>
+        <v>160</v>
+      </c>
+      <c r="E146" s="40">
+        <f t="shared" ref="E146" si="14">B146-D146</f>
+        <v>60</v>
+      </c>
+      <c r="F146" s="40">
+        <f t="shared" ref="F146:F149" si="15">E146</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>30</v>
+      </c>
+      <c r="B147">
+        <v>220</v>
+      </c>
+      <c r="C147" s="42">
+        <v>4</v>
+      </c>
+      <c r="D147" s="40">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="E147" s="40">
+        <f>B147-D147</f>
+        <v>100</v>
+      </c>
+      <c r="F147" s="40">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>220</v>
+      </c>
+      <c r="C148" s="42">
+        <v>4</v>
+      </c>
+      <c r="D148" s="40">
+        <f>C148*A148</f>
+        <v>80</v>
+      </c>
+      <c r="E148" s="40">
+        <f t="shared" ref="E148:E149" si="16">B148-D148</f>
+        <v>140</v>
+      </c>
+      <c r="F148" s="40">
+        <f t="shared" si="15"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>10</v>
+      </c>
+      <c r="B149">
+        <v>220</v>
+      </c>
+      <c r="C149" s="42">
+        <v>4</v>
+      </c>
+      <c r="D149" s="40">
+        <f t="shared" ref="D149" si="17">C149*A149</f>
+        <v>40</v>
+      </c>
+      <c r="E149" s="40">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+      <c r="F149" s="40">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="41"/>
+      <c r="F159" s="41"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>20</v>
+      </c>
+      <c r="C161" s="39">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D161" s="40">
+        <f>C161*A161</f>
+        <v>0.5</v>
+      </c>
+      <c r="E161" s="40">
+        <f>B161+D161</f>
+        <v>20.5</v>
+      </c>
+      <c r="F161" s="40">
+        <f>E161</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>20</v>
+      </c>
+      <c r="C162" s="39">
+        <f t="shared" ref="C162:C165" si="18">1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D162" s="40">
+        <f t="shared" ref="D162:D163" si="19">C162*A162</f>
+        <v>1</v>
+      </c>
+      <c r="E162" s="40">
+        <f t="shared" ref="E162:E165" si="20">B162+D162</f>
+        <v>21</v>
+      </c>
+      <c r="F162" s="40">
+        <f t="shared" ref="F162:F165" si="21">E162</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>20</v>
+      </c>
+      <c r="C163" s="39">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="D163" s="40">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="E163" s="40">
+        <f t="shared" si="20"/>
+        <v>21.5</v>
+      </c>
+      <c r="F163" s="40">
+        <f t="shared" si="21"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>20</v>
+      </c>
+      <c r="C164" s="39">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="D164" s="40">
+        <f>C164*A164</f>
+        <v>2</v>
+      </c>
+      <c r="E164" s="40">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="F164" s="40">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>20</v>
+      </c>
+      <c r="C165" s="39">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="D165" s="40">
+        <f t="shared" ref="D165" si="22">C165*A165</f>
+        <v>2.5</v>
+      </c>
+      <c r="E165" s="40">
+        <f t="shared" si="20"/>
+        <v>22.5</v>
+      </c>
+      <c r="F165" s="40">
+        <f t="shared" si="21"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="41"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" t="s">
+        <v>40</v>
+      </c>
+      <c r="F177" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>20</v>
+      </c>
+      <c r="C178" s="42">
+        <v>2</v>
+      </c>
+      <c r="D178" s="40">
+        <f>C178*A178</f>
+        <v>2</v>
+      </c>
+      <c r="E178" s="40">
+        <f>B178+D178</f>
+        <v>22</v>
+      </c>
+      <c r="F178" s="40">
+        <f>E178</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>20</v>
+      </c>
+      <c r="C179" s="42">
+        <v>2</v>
+      </c>
+      <c r="D179" s="40">
+        <f t="shared" ref="D179:D180" si="23">C179*A179</f>
+        <v>4</v>
+      </c>
+      <c r="E179" s="40">
+        <f t="shared" ref="E179:E182" si="24">B179+D179</f>
+        <v>24</v>
+      </c>
+      <c r="F179" s="40">
+        <f t="shared" ref="F179:F182" si="25">E179</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>20</v>
+      </c>
+      <c r="C180" s="42">
+        <v>2</v>
+      </c>
+      <c r="D180" s="40">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="E180" s="40">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="F180" s="40">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>20</v>
+      </c>
+      <c r="C181" s="42">
+        <v>2</v>
+      </c>
+      <c r="D181" s="40">
+        <f>C181*A181</f>
+        <v>8</v>
+      </c>
+      <c r="E181" s="40">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="F181" s="40">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182">
+        <v>20</v>
+      </c>
+      <c r="C182" s="42">
+        <v>2</v>
+      </c>
+      <c r="D182" s="40">
+        <f t="shared" ref="D182" si="26">C182*A182</f>
+        <v>10</v>
+      </c>
+      <c r="E182" s="40">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="F182" s="40">
+        <f t="shared" si="25"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="D69:D77">
     <sortCondition ref="D69:D77"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A176:F176"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389ACE91-50BE-4D80-A0B4-B7591B53EF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07911BB1-2CBD-4FA7-A934-6C283C4FEEA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejercicio 2.83" sheetId="1" r:id="rId1"/>
-    <sheet name="Ejercicios 3.1-3.11" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
+    <sheet name="Ejercicio 2.83" sheetId="1" r:id="rId2"/>
+    <sheet name="Ejercicios 3.1-3.11" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -158,16 +160,103 @@
   <si>
     <t>3.11</t>
   </si>
+  <si>
+    <t>93+0=93=93+0</t>
+  </si>
+  <si>
+    <t>La identidad del ingreso-producto está dada por la asociación del valor de los bienes de consumo en relación con el ahorro por parte de las familias y con la inversión por parte de las unidades productoras, dado el supuesto de la ausencia de ahorro e inversión,  ya que las familias gastan todo su ingreso y las empresas el total de sus propios fondos dinerarios, a la vez que los bienes intermedios y de capital sólo duran un periodo y deben reponerse al inicio del siguiente periodo.</t>
+  </si>
+  <si>
+    <t>C+S=Y=P=C+I</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>El valor de los bienes de consumo es equivalente al ingreso social, dados los supuestos de que las familias gastan todo su ingreso, el ingreso social es equivalente al costo de los servicios de los factores productivos y éste se convierte en el ingreso de las unidades productoras posterior al consumo de bienes y servicios.</t>
+  </si>
+  <si>
+    <t>C=Y=93</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dada la identidad del ingreso-producto y la equivalencia entre el valor de los bienes de consumo y el total de la producción, el valor monetario del flujo nominal es igual al resultado de la identidad ingreso-producto </t>
+  </si>
+  <si>
+    <t>Y=C+S</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>el valor de los insumos (12 u.m.) se toma como equivalente de los bienes intermedios y el valor del costo de los servicios de los factores productivos (93 u.m.) se toma como el valor de los bienes finales producidos en la economía.</t>
+  </si>
+  <si>
+    <t>El valor monetario del total de la producción, incluyendo Bienes finales e intermedios es igual al valor bruto de la producción</t>
+  </si>
+  <si>
+    <t>VBP=BI+BF</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>167+0=167=167+0</t>
+  </si>
+  <si>
+    <t>La identidad del ingreso-producto está dada por la asociación del valor de los bienes de consumo en relación con el ahorro por parte de las familias y con la inversión por parte de las unidades productoras, dado el supuesto de la ausencia de ahorro e inversión, ya que las familias gastan todo su ingreso y las empresas el total de sus propios fondos dinerarios, a la vez que los bienes intermedios y de capital sólo duran un periodo y deben reponerse al inicio del siguiente periodo.</t>
+  </si>
+  <si>
+    <t>En este caso, dados los supuestos, el consumo de las familias es igual a su ingreso, es decir el valor de los bienes de consumo es igual al ingreso de las familias dados los supuestos de que las familias gastan todo su ingreso y no ahorran</t>
+  </si>
+  <si>
+    <t>C=Y=167</t>
+  </si>
+  <si>
+    <t>En este caso el ingreso social está dado por el valor del costo de los servicios de los factores productivos, lo que a su vez equivale al valor de los bienes intermedios, dados los supuestos las familias no ahorran y gastan todo su ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ingreso social está dado por la suma del gasto de consumo y el ahorro </t>
+  </si>
+  <si>
+    <t>dónde el valor de los bienes finales es igual al costo de los servicios de los factores productivos</t>
+  </si>
+  <si>
+    <t>el valor bruto de la producción es igual a la suma de bienes intermedios y bienes finales</t>
+  </si>
+  <si>
+    <t>Cambio de 297 a 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de 240 a 297, </t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -288,7 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -378,10 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -2527,6 +2620,2091 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B27A-49FE-8A12-832FC4F3DF8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$21:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B8E-465C-A2DC-225886EAEC26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$37:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$37:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB53-4F42-8C6C-99B06DA5F16A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$53:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$53:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAB3-4313-9679-421D42FCAFA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7212,6 +9390,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9151,6 +11489,2210 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14571,6 +19113,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5221650-E7AE-46E5-9C86-0DC74610E4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198BE524-F7EF-4A0F-9B6E-8589802B7084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AE84B2-D4EC-4F26-8528-45021EA80169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69AA947-BB29-4E9B-8752-CB195CB63326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -14867,6 +19566,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA9C225-F49B-46A2-B34B-5B1749CBBDC0}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>297</v>
+      </c>
+      <c r="E2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="45">
+        <f>F3</f>
+        <v>3.0909979987868486E-2</v>
+      </c>
+      <c r="C3" s="44">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D3">
+        <f>D2/E2</f>
+        <v>1.2375</v>
+      </c>
+      <c r="E3" s="43">
+        <f>D3^C3</f>
+        <v>1.0309099799878685</v>
+      </c>
+      <c r="F3" s="43">
+        <f>E3-1</f>
+        <v>3.0909979987868486E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="45">
+        <f>F4</f>
+        <v>-2.9983199879617395E-2</v>
+      </c>
+      <c r="C4" s="44">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D4">
+        <f>E2/D2</f>
+        <v>0.80808080808080807</v>
+      </c>
+      <c r="E4" s="43">
+        <f>D4^C4</f>
+        <v>0.97001680012038261</v>
+      </c>
+      <c r="F4" s="43">
+        <f>E4-1</f>
+        <v>-2.9983199879617395E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="44"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="44"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="44"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f>B9*(1+$F$3)</f>
+        <v>247.41839519708844</v>
+      </c>
+      <c r="D10">
+        <f>D9*(1+$F$4)</f>
+        <v>288.09498963575362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <f>B10*(1+$F$3)</f>
+        <v>255.066092841261</v>
+      </c>
+      <c r="D11">
+        <f>D10*(1+$F$4)</f>
+        <v>279.4569799771885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>B11*(1+$F$3)</f>
+        <v>262.9501806665682</v>
+      </c>
+      <c r="D12">
+        <f>D11*(1+$F$4)</f>
+        <v>271.0779654887782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>B12*(1+$F$3)</f>
+        <v>271.0779654887782</v>
+      </c>
+      <c r="D13">
+        <f>D12*(1+$F$4)</f>
+        <v>262.95018066656814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>B13*(1+$F$3)</f>
+        <v>279.45697997718844</v>
+      </c>
+      <c r="D14">
+        <f>D13*(1+$F$4)</f>
+        <v>255.06609284126094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <f>B14*(1+$F$3)</f>
+        <v>288.09498963575351</v>
+      </c>
+      <c r="D15">
+        <f>D14*(1+$F$4)</f>
+        <v>247.41839519708836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f>B15*(1+$F$3)</f>
+        <v>296.99999999999983</v>
+      </c>
+      <c r="D16">
+        <f>D15*(1+$F$4)</f>
+        <v>239.99999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <f>75+167</f>
+        <v>242</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <f>167+0</f>
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <f>12+93</f>
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A79BA81-605C-4470-9235-9A5859838D46}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K42"/>
@@ -15792,12 +20845,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4827C6-795B-4E7E-9616-5B8D2BEECDBA}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15806,10 +20859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="41">
+      <c r="A1" s="42">
         <v>3.1</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -15868,10 +20921,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="41">
+      <c r="A17" s="42">
         <v>3.2</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -15922,10 +20975,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="41">
+      <c r="A34" s="42">
         <v>3.3</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="42"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -15984,10 +21037,10 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="41">
+      <c r="A51" s="42">
         <v>3.4</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="42"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
@@ -16038,14 +21091,14 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="41">
+      <c r="A67" s="42">
         <v>3.5</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="D67" s="41">
+      <c r="B67" s="42"/>
+      <c r="D67" s="42">
         <v>3.5</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="42"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
@@ -16301,14 +21354,14 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="41">
+      <c r="A92" s="42">
         <v>3.6</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
@@ -16451,14 +21504,14 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="41">
+      <c r="A110" s="42">
         <v>3.7</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
@@ -16601,14 +21654,14 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="41">
+      <c r="A127" s="42">
         <v>3.8</v>
       </c>
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
@@ -16746,14 +21799,14 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="42"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
@@ -16782,7 +21835,7 @@
       <c r="B145">
         <v>220</v>
       </c>
-      <c r="C145" s="42">
+      <c r="C145" s="41">
         <v>4</v>
       </c>
       <c r="D145" s="40">
@@ -16805,7 +21858,7 @@
       <c r="B146">
         <v>220</v>
       </c>
-      <c r="C146" s="42">
+      <c r="C146" s="41">
         <v>4</v>
       </c>
       <c r="D146" s="40">
@@ -16828,7 +21881,7 @@
       <c r="B147">
         <v>220</v>
       </c>
-      <c r="C147" s="42">
+      <c r="C147" s="41">
         <v>4</v>
       </c>
       <c r="D147" s="40">
@@ -16851,7 +21904,7 @@
       <c r="B148">
         <v>220</v>
       </c>
-      <c r="C148" s="42">
+      <c r="C148" s="41">
         <v>4</v>
       </c>
       <c r="D148" s="40">
@@ -16874,7 +21927,7 @@
       <c r="B149">
         <v>220</v>
       </c>
-      <c r="C149" s="42">
+      <c r="C149" s="41">
         <v>4</v>
       </c>
       <c r="D149" s="40">
@@ -16891,14 +21944,14 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="41" t="s">
+      <c r="A159" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="41"/>
-      <c r="E159" s="41"/>
-      <c r="F159" s="41"/>
+      <c r="B159" s="42"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
@@ -17041,14 +22094,14 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="41" t="s">
+      <c r="A176" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="41"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="41"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="41"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
@@ -17077,7 +22130,7 @@
       <c r="B178">
         <v>20</v>
       </c>
-      <c r="C178" s="42">
+      <c r="C178" s="41">
         <v>2</v>
       </c>
       <c r="D178" s="40">
@@ -17100,7 +22153,7 @@
       <c r="B179">
         <v>20</v>
       </c>
-      <c r="C179" s="42">
+      <c r="C179" s="41">
         <v>2</v>
       </c>
       <c r="D179" s="40">
@@ -17123,7 +22176,7 @@
       <c r="B180">
         <v>20</v>
       </c>
-      <c r="C180" s="42">
+      <c r="C180" s="41">
         <v>2</v>
       </c>
       <c r="D180" s="40">
@@ -17146,7 +22199,7 @@
       <c r="B181">
         <v>20</v>
       </c>
-      <c r="C181" s="42">
+      <c r="C181" s="41">
         <v>2</v>
       </c>
       <c r="D181" s="40">
@@ -17169,7 +22222,7 @@
       <c r="B182">
         <v>20</v>
       </c>
-      <c r="C182" s="42">
+      <c r="C182" s="41">
         <v>2</v>
       </c>
       <c r="D182" s="40">
@@ -17190,6 +22243,11 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -17197,15 +22255,329 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="42">
+        <v>3.12</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="46">
+        <f>$C$1-A3*$C$2</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B8" si="0">$C$1-A4*$C$2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="42">
+        <v>3.13</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f>$C$19-A21*$C$20</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B26" si="1">$C$19-A22*$C$20</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="42">
+        <v>3.14</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f>$C$35-A37*$C$36</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B42" si="2">$C$35-A38*$C$36</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="42">
+        <v>3.15</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <f>$C$51-A53*$C$52</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54:B58" si="3">$C$51-A54*$C$52</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>100</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>150</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>200</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A51:B51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07911BB1-2CBD-4FA7-A934-6C283C4FEEA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6526F0F4-36F9-41E6-BD47-1833493B326D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -468,13 +468,13 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -4549,6 +4549,1050 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DAB3-4313-9679-421D42FCAFA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Oferta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$71:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999944578E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$71:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C15B-4FFF-BA11-4FEBCDBC3CDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Oferta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$87:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$87:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDE0-4CF3-8C7E-40E7CEEC8A0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9550,6 +10594,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13693,6 +14817,1108 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19267,6 +21493,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379B0585-81F1-4961-95FE-00DFE8BCFB2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185043AF-C90B-4736-9C6E-3D2632713EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19609,11 +21911,11 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <f>F3</f>
         <v>3.0909979987868486E-2</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
@@ -19621,11 +21923,11 @@
         <f>D2/E2</f>
         <v>1.2375</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <f>D3^C3</f>
         <v>1.0309099799878685</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <f>E3-1</f>
         <v>3.0909979987868486E-2</v>
       </c>
@@ -19634,11 +21936,11 @@
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <f>F4</f>
         <v>-2.9983199879617395E-2</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
@@ -19646,29 +21948,29 @@
         <f>E2/D2</f>
         <v>0.80808080808080807</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <f>D4^C4</f>
         <v>0.97001680012038261</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <f>E4-1</f>
         <v>-2.9983199879617395E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" s="44"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="C6" s="44"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" s="44"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
@@ -19694,11 +21996,11 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <f>B9*(1+$F$3)</f>
+        <f t="shared" ref="B10:B16" si="0">B9*(1+$F$3)</f>
         <v>247.41839519708844</v>
       </c>
       <c r="D10">
-        <f>D9*(1+$F$4)</f>
+        <f t="shared" ref="D10:D16" si="1">D9*(1+$F$4)</f>
         <v>288.09498963575362</v>
       </c>
     </row>
@@ -19707,11 +22009,11 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <f>B10*(1+$F$3)</f>
+        <f t="shared" si="0"/>
         <v>255.066092841261</v>
       </c>
       <c r="D11">
-        <f>D10*(1+$F$4)</f>
+        <f t="shared" si="1"/>
         <v>279.4569799771885</v>
       </c>
     </row>
@@ -19720,11 +22022,11 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <f>B11*(1+$F$3)</f>
+        <f t="shared" si="0"/>
         <v>262.9501806665682</v>
       </c>
       <c r="D12">
-        <f>D11*(1+$F$4)</f>
+        <f t="shared" si="1"/>
         <v>271.0779654887782</v>
       </c>
     </row>
@@ -19733,11 +22035,11 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <f>B12*(1+$F$3)</f>
+        <f t="shared" si="0"/>
         <v>271.0779654887782</v>
       </c>
       <c r="D13">
-        <f>D12*(1+$F$4)</f>
+        <f t="shared" si="1"/>
         <v>262.95018066656814</v>
       </c>
     </row>
@@ -19746,11 +22048,11 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <f>B13*(1+$F$3)</f>
+        <f t="shared" si="0"/>
         <v>279.45697997718844</v>
       </c>
       <c r="D14">
-        <f>D13*(1+$F$4)</f>
+        <f t="shared" si="1"/>
         <v>255.06609284126094</v>
       </c>
     </row>
@@ -19759,11 +22061,11 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <f>B14*(1+$F$3)</f>
+        <f t="shared" si="0"/>
         <v>288.09498963575351</v>
       </c>
       <c r="D15">
-        <f>D14*(1+$F$4)</f>
+        <f t="shared" si="1"/>
         <v>247.41839519708836</v>
       </c>
     </row>
@@ -19772,11 +22074,11 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f>B15*(1+$F$3)</f>
+        <f t="shared" si="0"/>
         <v>296.99999999999983</v>
       </c>
       <c r="D16">
-        <f>D15*(1+$F$4)</f>
+        <f t="shared" si="1"/>
         <v>239.99999999999989</v>
       </c>
     </row>
@@ -20859,10 +23161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="42">
+      <c r="A1" s="46">
         <v>3.1</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -20921,10 +23223,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="42">
+      <c r="A17" s="46">
         <v>3.2</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="46"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -20975,10 +23277,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="42">
+      <c r="A34" s="46">
         <v>3.3</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="46"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -21037,10 +23339,10 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="42">
+      <c r="A51" s="46">
         <v>3.4</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="46"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
@@ -21091,14 +23393,14 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="42">
+      <c r="A67" s="46">
         <v>3.5</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="D67" s="42">
+      <c r="B67" s="46"/>
+      <c r="D67" s="46">
         <v>3.5</v>
       </c>
-      <c r="E67" s="42"/>
+      <c r="E67" s="46"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
@@ -21354,14 +23656,14 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="42">
+      <c r="A92" s="46">
         <v>3.6</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
@@ -21504,14 +23806,14 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="42">
+      <c r="A110" s="46">
         <v>3.7</v>
       </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
@@ -21654,14 +23956,14 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="42">
+      <c r="A127" s="46">
         <v>3.8</v>
       </c>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
@@ -21799,14 +24101,14 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="42"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="42"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
@@ -21944,14 +24246,14 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="42" t="s">
+      <c r="A159" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B159" s="42"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="42"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
@@ -22094,14 +24396,14 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="42"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="46"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
@@ -22243,11 +24545,6 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -22255,6 +24552,11 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22265,19 +24567,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="42">
+      <c r="A1" s="46">
         <v>3.12</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="46"/>
       <c r="C1">
         <v>100</v>
       </c>
@@ -22297,7 +24599,7 @@
       <c r="A3">
         <v>15</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <f>$C$1-A3*$C$2</f>
         <v>85</v>
       </c>
@@ -22348,10 +24650,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="42">
+      <c r="A19" s="46">
         <v>3.13</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="46"/>
       <c r="C19">
         <v>40</v>
       </c>
@@ -22422,10 +24724,10 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="42">
+      <c r="A35" s="46">
         <v>3.14</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="46"/>
       <c r="C35">
         <v>500</v>
       </c>
@@ -22496,10 +24798,10 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="42">
+      <c r="A51" s="46">
         <v>3.15</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="46"/>
       <c r="C51">
         <v>80</v>
       </c>
@@ -22569,12 +24871,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="46">
+        <v>3.16</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>-5</v>
+      </c>
+      <c r="B71">
+        <f>$C$69+$C$70*A71</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>-3.3330000000000002</v>
+      </c>
+      <c r="B72">
+        <f>$C$69+$C$70*A72</f>
+        <v>9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>-2</v>
+      </c>
+      <c r="B73">
+        <f>$C$69+$C$70*A73</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <f>$C$69+$C$70*A74</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <f>$C$69+$C$70*A75</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <f>$C$69+$C$70*A76</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="46">
+        <v>3.17</v>
+      </c>
+      <c r="B85" s="46"/>
+      <c r="C85">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>-3</v>
+      </c>
+      <c r="B87">
+        <f>$C$85+$C$86*A87</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>-2</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ref="B88:B92" si="4">$C$85+$C$86*A88</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>2.5</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A85:B85"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6526F0F4-36F9-41E6-BD47-1833493B326D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44432BE-AFC3-4158-831E-33F59AA1EFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Q=10+3P</t>
+  </si>
+  <si>
+    <t>Q=-10+3P</t>
   </si>
 </sst>
 </file>
@@ -5880,6 +5886,644 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Oferta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q=-10+3P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$105:$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-19.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.9999999999944578E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$105:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-3.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3330000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C24-43CF-825F-5E08015013B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q=10+3P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$105:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999944578E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.999000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$105:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-3.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3330000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C24-43CF-825F-5E08015013B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10674,6 +11318,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15919,6 +16603,557 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21569,6 +22804,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF96128-7A58-498B-B26E-C61B4B6DAD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24545,6 +25818,11 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -24552,11 +25830,6 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24567,10 +25840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:B92"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24896,7 +26169,7 @@
         <v>-5</v>
       </c>
       <c r="B71">
-        <f>$C$69+$C$70*A71</f>
+        <f t="shared" ref="B71:B76" si="4">$C$69+$C$70*A71</f>
         <v>-5</v>
       </c>
     </row>
@@ -24905,7 +26178,7 @@
         <v>-3.3330000000000002</v>
       </c>
       <c r="B72">
-        <f>$C$69+$C$70*A72</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999944578E-4</v>
       </c>
     </row>
@@ -24914,7 +26187,7 @@
         <v>-2</v>
       </c>
       <c r="B73">
-        <f>$C$69+$C$70*A73</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -24923,7 +26196,7 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <f>$C$69+$C$70*A74</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -24932,7 +26205,7 @@
         <v>5</v>
       </c>
       <c r="B75">
-        <f>$C$69+$C$70*A75</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
@@ -24941,7 +26214,7 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <f>$C$69+$C$70*A76</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -24979,7 +26252,7 @@
         <v>-2</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:B92" si="4">$C$85+$C$86*A88</f>
+        <f t="shared" ref="B88:B92" si="5">$C$85+$C$86*A88</f>
         <v>-9</v>
       </c>
     </row>
@@ -24988,7 +26261,7 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
     </row>
@@ -24997,7 +26270,7 @@
         <v>2.5</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -25006,7 +26279,7 @@
         <v>5</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -25015,12 +26288,80 @@
         <v>7</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="46">
+        <v>3.18</v>
+      </c>
+      <c r="B102" s="46"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>-10</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>-3.3330000000000002</v>
+      </c>
+      <c r="B105">
+        <f>$A$103+$B$103*A105</f>
+        <v>-19.999000000000002</v>
+      </c>
+      <c r="C105">
+        <f>$C$103+$B$103*A105</f>
+        <v>9.9999999999944578E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <f>$A$103+$B$103*A107</f>
+        <v>-10</v>
+      </c>
+      <c r="C107">
+        <f>$C$103+$B$103*A107</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="B108">
+        <f>$A$103+$B$103*A108</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="C108">
+        <f>$C$103+$B$103*A108</f>
+        <v>19.999000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:B19"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44432BE-AFC3-4158-831E-33F59AA1EFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7721475-0317-45A9-A3C1-99FF5892637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>Q=-10+3P</t>
+  </si>
+  <si>
+    <t>Q=-5+1/2P</t>
+  </si>
+  <si>
+    <t>Q=5+1/2P</t>
+  </si>
+  <si>
+    <t>Q=300-P</t>
+  </si>
+  <si>
+    <t>Q=300-1/2P</t>
   </si>
 </sst>
 </file>
@@ -7144,6 +7156,1318 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Oferta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q=-5+1/2P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$119:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$119:$A$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CE8-4C47-83A1-FE1A65BD4C46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q=5+1/2P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$119:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$119:$A$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CE8-4C47-83A1-FE1A65BD4C46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demanda</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de un bien (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q=300-P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$136:$B$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$136:$A$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41C9-47AC-BB31-0364EFC62823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q=300-1/2P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$136:$C$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$136:$A$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-41C9-47AC-BB31-0364EFC62823}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Precio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11398,6 +12722,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17705,6 +19109,1108 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22842,6 +25348,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBD57B9-EC4D-4E4F-9CD5-4F171908F3E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4080EE8-C4F2-4844-873B-07959FBCB33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25818,11 +28400,6 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -25830,6 +28407,11 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25840,10 +28422,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -26359,8 +28941,185 @@
         <v>19.999000000000002</v>
       </c>
     </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="46">
+        <v>3.19</v>
+      </c>
+      <c r="B116" s="46"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>-5</v>
+      </c>
+      <c r="B117">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>-18</v>
+      </c>
+      <c r="B119">
+        <f>$A$117+$B$117*A119</f>
+        <v>-14</v>
+      </c>
+      <c r="C119">
+        <f>$C$117+$B$117*A119</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>-10</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120:B122" si="6">$A$117+$B$117*A120</f>
+        <v>-10</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ref="C120:C122" si="7">$C$117+$B$117*A120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="B133" s="46"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>300</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>600</v>
+      </c>
+      <c r="B136">
+        <f>$A$134-$B$134*A136</f>
+        <v>-300</v>
+      </c>
+      <c r="C136">
+        <f>$A$134-$C$134*A136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>300</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137:B140" si="8">$A$134-$B$134*A137</f>
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137:C140" si="9">$A$134-$C$134*A137</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>150</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>70</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="9"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A1:B1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7721475-0317-45A9-A3C1-99FF5892637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681F176-910D-4DC6-A652-663F70519C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -261,6 +261,36 @@
   </si>
   <si>
     <t>Q=300-1/2P</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>Ingreso (Y)</t>
+  </si>
+  <si>
+    <t>Consumo (C)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C'</t>
+  </si>
+  <si>
+    <t>C autónomo</t>
+  </si>
+  <si>
+    <t>pMC</t>
+  </si>
+  <si>
+    <t>C=Co+4/5Y</t>
+  </si>
+  <si>
+    <t>C=Co+0.75Y</t>
   </si>
 </sst>
 </file>
@@ -8342,6 +8372,1851 @@
                 <a:r>
                   <a:rPr lang="es-MX" baseline="0"/>
                   <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Función</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de consumo</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20115236857064889"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.74978838003361037"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo (C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$152:$B$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$152:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12AF-49D5-8D05-6ADD8EB72551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$168:$B$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$168:$A$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B9E-4D32-9108-388514094B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$D$168:$D$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$168:$C$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B9E-4D32-9108-388514094B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=Co+0.75Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$188:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$188:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF04-4787-AA89-AA8FDF1987D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=Co+4/5Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$D$188:$D$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$188:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1758.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5269.2000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FF04-4787-AA89-AA8FDF1987D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-MX"/>
               </a:p>
@@ -12802,6 +14677,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20211,6 +22206,1659 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25424,6 +29072,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BDE75F-2E1C-4157-B3B1-F2E73FF35748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EAA1E3-0725-4687-9665-865259B3E41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003CC1E4-8D1C-4811-81CA-C763EB3A3D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28422,10 +32184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29023,8 +32785,8 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="46">
-        <v>3.2</v>
+      <c r="A133" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="B133" s="46"/>
     </row>
@@ -29116,17 +32878,295 @@
         <v>300</v>
       </c>
     </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="46">
+        <v>3.27</v>
+      </c>
+      <c r="B150" s="46"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>5</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="46">
+        <v>3.28</v>
+      </c>
+      <c r="B166" s="46"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167" t="s">
+        <v>79</v>
+      </c>
+      <c r="D167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>60</v>
+      </c>
+      <c r="B168">
+        <v>60</v>
+      </c>
+      <c r="C168">
+        <v>54</v>
+      </c>
+      <c r="D168">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>80</v>
+      </c>
+      <c r="B169">
+        <v>80</v>
+      </c>
+      <c r="C169">
+        <v>90</v>
+      </c>
+      <c r="D169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>90</v>
+      </c>
+      <c r="B170">
+        <v>90</v>
+      </c>
+      <c r="C170">
+        <v>108</v>
+      </c>
+      <c r="D170">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>160</v>
+      </c>
+      <c r="B171">
+        <v>160</v>
+      </c>
+      <c r="C171">
+        <v>144</v>
+      </c>
+      <c r="D171">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="46">
+        <v>3.31</v>
+      </c>
+      <c r="B184" s="46"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" t="s">
+        <v>82</v>
+      </c>
+      <c r="D185" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>0.75</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>85</v>
+      </c>
+      <c r="B187" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <f>$A$186+$B$186*B188</f>
+        <v>2.75</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <f>$C$186+$D$186*D188</f>
+        <v>2.8</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <f>$A$186+$B$186*B189</f>
+        <v>22.25</v>
+      </c>
+      <c r="B189">
+        <v>27</v>
+      </c>
+      <c r="C189">
+        <f>$C$186+$D$186*D189</f>
+        <v>23.6</v>
+      </c>
+      <c r="D189">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <f t="shared" ref="A190:A193" si="10">$A$186+$B$186*B190</f>
+        <v>184.25</v>
+      </c>
+      <c r="B190">
+        <v>243</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ref="C190:C193" si="11">$C$186+$D$186*D190</f>
+        <v>196.4</v>
+      </c>
+      <c r="D190">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <f t="shared" si="10"/>
+        <v>551</v>
+      </c>
+      <c r="B191">
+        <v>732</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="11"/>
+        <v>587.6</v>
+      </c>
+      <c r="D191">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <f t="shared" si="10"/>
+        <v>1649</v>
+      </c>
+      <c r="B192">
+        <v>2196</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="11"/>
+        <v>1758.8000000000002</v>
+      </c>
+      <c r="D192">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <f t="shared" si="10"/>
+        <v>4940</v>
+      </c>
+      <c r="B193">
+        <v>6584</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="11"/>
+        <v>5269.2000000000007</v>
+      </c>
+      <c r="D193">
+        <v>6584</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A102:B102"/>
+  <mergeCells count="12">
+    <mergeCell ref="A184:B184"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A102:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681F176-910D-4DC6-A652-663F70519C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11739D6C-2BF4-4190-B78B-39AA8A483535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -291,6 +291,27 @@
   </si>
   <si>
     <t>C=Co+0.75Y</t>
+  </si>
+  <si>
+    <t>C=Co+0.34Y</t>
+  </si>
+  <si>
+    <t>C=Co+1/4Y</t>
+  </si>
+  <si>
+    <t>C=10+0.45Y</t>
+  </si>
+  <si>
+    <t>C’=20+0.45Y</t>
+  </si>
+  <si>
+    <t>C_1=400+6/10 Y</t>
+  </si>
+  <si>
+    <t>C_2=800+15/100 Y</t>
+  </si>
+  <si>
+    <t>C=1000+0.6(Y)</t>
   </si>
 </sst>
 </file>
@@ -10312,6 +10333,2399 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=Co+1/4Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$206:$B$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$206:$A$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC59-43D6-A13A-02ABFDA24B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=Co+0.34Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$D$206:$D$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$206:$C$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1022.0000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC59-43D6-A13A-02ABFDA24B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$224</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=10+0.45Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$225:$B$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$225:$A$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C569-4AE5-8325-DA53056B2132}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$224</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C’=20+0.45Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$D$225:$D$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$225:$C$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C569-4AE5-8325-DA53056B2132}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo (2 ecuaciones).</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$243</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C_1=400+6/10 Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$244:$B$245</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$244:$A$245</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-654D-4193-91F6-EBF8E20DBD7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$243</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C_2=800+15/100 Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$D$244:$D$245</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$244:$C$245</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-654D-4193-91F6-EBF8E20DBD7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="850"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$261</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=1000+0.6(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$262:$B$263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$262:$A$263</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E2A-4F49-B186-DA44C815B812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -14797,6 +17211,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23859,6 +26433,2210 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29186,6 +33964,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1D2466-AA40-4107-BC17-A54AE88C3C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE94D68-2F04-4994-A98C-F304B286FA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7663A541-C05A-43E9-87EB-FC307CD516CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Gráfico 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E30E223-C9F5-45CA-BC44-5D9DF465B2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29884,11 +34814,11 @@
         <v>1617127.9628195195</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:C3" si="0">B1/B2</f>
+        <f>B1/B2</f>
         <v>1639389.2721217889</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="0"/>
+        <f>C1/C2</f>
         <v>1707819.1847585288</v>
       </c>
     </row>
@@ -30130,23 +35060,23 @@
         <v>1085815.1000000001</v>
       </c>
       <c r="G25" s="36">
-        <f t="shared" ref="G25:G40" si="1">D25-B25</f>
+        <f t="shared" ref="G25:G40" si="0">D25-B25</f>
         <v>152402.9</v>
       </c>
       <c r="H25" s="35">
-        <f t="shared" ref="H25:H40" si="2">(B25-B24)/B24</f>
+        <f t="shared" ref="H25:H40" si="1">(B25-B24)/B24</f>
         <v>-0.246596943626371</v>
       </c>
       <c r="I25" s="35">
-        <f t="shared" ref="I25:I40" si="3">(D25-D24)/D24</f>
+        <f t="shared" ref="I25:I40" si="2">(D25-D24)/D24</f>
         <v>5.7511662716036284E-2</v>
       </c>
       <c r="J25" s="35">
-        <f t="shared" ref="J25:J40" si="4">(F25-F24)/F24</f>
+        <f t="shared" ref="J25:J40" si="3">(F25-F24)/F24</f>
         <v>4.1982941389226765E-2</v>
       </c>
       <c r="K25" s="35">
-        <f t="shared" ref="K25:K40" si="5">(G25-G24)/G24</f>
+        <f t="shared" ref="K25:K40" si="4">(G25-G24)/G24</f>
         <v>0.11508252112141208</v>
       </c>
     </row>
@@ -30170,23 +35100,23 @@
         <v>1140847.5</v>
       </c>
       <c r="G26" s="36">
+        <f t="shared" si="0"/>
+        <v>175414.6</v>
+      </c>
+      <c r="H26" s="35">
         <f t="shared" si="1"/>
-        <v>175414.6</v>
-      </c>
-      <c r="H26" s="35">
+        <v>-2.3192465142048188E-2</v>
+      </c>
+      <c r="I26" s="35">
         <f t="shared" si="2"/>
-        <v>-2.3192465142048188E-2</v>
-      </c>
-      <c r="I26" s="35">
+        <v>0.13123959038094482</v>
+      </c>
+      <c r="J26" s="35">
         <f t="shared" si="3"/>
-        <v>0.13123959038094482</v>
-      </c>
-      <c r="J26" s="35">
+        <v>5.0683030655955974E-2</v>
+      </c>
+      <c r="K26" s="35">
         <f t="shared" si="4"/>
-        <v>5.0683030655955974E-2</v>
-      </c>
-      <c r="K26" s="35">
-        <f t="shared" si="5"/>
         <v>0.15099253360664405</v>
       </c>
     </row>
@@ -30210,23 +35140,23 @@
         <v>1189017</v>
       </c>
       <c r="G27" s="36">
+        <f t="shared" si="0"/>
+        <v>196938.4</v>
+      </c>
+      <c r="H27" s="35">
         <f t="shared" si="1"/>
-        <v>196938.4</v>
-      </c>
-      <c r="H27" s="35">
+        <v>-7.6990541612179083E-3</v>
+      </c>
+      <c r="I27" s="35">
         <f t="shared" si="2"/>
-        <v>-7.6990541612179083E-3</v>
-      </c>
-      <c r="I27" s="35">
+        <v>0.10993340906601452</v>
+      </c>
+      <c r="J27" s="35">
         <f t="shared" si="3"/>
-        <v>0.10993340906601452</v>
-      </c>
-      <c r="J27" s="35">
+        <v>4.2222558229737105E-2</v>
+      </c>
+      <c r="K27" s="35">
         <f t="shared" si="4"/>
-        <v>4.2222558229737105E-2</v>
-      </c>
-      <c r="K27" s="35">
-        <f t="shared" si="5"/>
         <v>0.12270244324018632</v>
       </c>
     </row>
@@ -30250,23 +35180,23 @@
         <v>1232162.3</v>
       </c>
       <c r="G28" s="36">
+        <f t="shared" si="0"/>
+        <v>212472.2</v>
+      </c>
+      <c r="H28" s="35">
         <f t="shared" si="1"/>
-        <v>212472.2</v>
-      </c>
-      <c r="H28" s="35">
+        <v>0.41599496155006421</v>
+      </c>
+      <c r="I28" s="35">
         <f t="shared" si="2"/>
-        <v>0.41599496155006421</v>
-      </c>
-      <c r="I28" s="35">
+        <v>0.10838884304585346</v>
+      </c>
+      <c r="J28" s="35">
         <f t="shared" si="3"/>
-        <v>0.10838884304585346</v>
-      </c>
-      <c r="J28" s="35">
+        <v>3.6286529124478495E-2</v>
+      </c>
+      <c r="K28" s="35">
         <f t="shared" si="4"/>
-        <v>3.6286529124478495E-2</v>
-      </c>
-      <c r="K28" s="35">
-        <f t="shared" si="5"/>
         <v>7.8876440551969643E-2</v>
       </c>
     </row>
@@ -30290,23 +35220,23 @@
         <v>1256196</v>
       </c>
       <c r="G29" s="36">
+        <f t="shared" si="0"/>
+        <v>202582</v>
+      </c>
+      <c r="H29" s="35">
         <f t="shared" si="1"/>
-        <v>202582</v>
-      </c>
-      <c r="H29" s="35">
+        <v>0.14362282655822514</v>
+      </c>
+      <c r="I29" s="35">
         <f t="shared" si="2"/>
-        <v>0.14362282655822514</v>
-      </c>
-      <c r="I29" s="35">
+        <v>-2.5279755211577312E-2</v>
+      </c>
+      <c r="J29" s="35">
         <f t="shared" si="3"/>
-        <v>-2.5279755211577312E-2</v>
-      </c>
-      <c r="J29" s="35">
+        <v>1.950530380616251E-2</v>
+      </c>
+      <c r="K29" s="35">
         <f t="shared" si="4"/>
-        <v>1.950530380616251E-2</v>
-      </c>
-      <c r="K29" s="35">
-        <f t="shared" si="5"/>
         <v>-4.6548207247818829E-2</v>
       </c>
     </row>
@@ -30330,23 +35260,23 @@
         <v>1311661.1000000001</v>
       </c>
       <c r="G30" s="36">
+        <f t="shared" si="0"/>
+        <v>214481.1</v>
+      </c>
+      <c r="H30" s="35">
         <f t="shared" si="1"/>
-        <v>214481.1</v>
-      </c>
-      <c r="H30" s="35">
+        <v>0.25056704164406113</v>
+      </c>
+      <c r="I30" s="35">
         <f t="shared" si="2"/>
-        <v>0.25056704164406113</v>
-      </c>
-      <c r="I30" s="35">
+        <v>8.3908784395191074E-2</v>
+      </c>
+      <c r="J30" s="35">
         <f t="shared" si="3"/>
-        <v>8.3908784395191074E-2</v>
-      </c>
-      <c r="J30" s="35">
+        <v>4.4153221312597787E-2</v>
+      </c>
+      <c r="K30" s="35">
         <f t="shared" si="4"/>
-        <v>4.4153221312597787E-2</v>
-      </c>
-      <c r="K30" s="35">
-        <f t="shared" si="5"/>
         <v>5.8737202712975514E-2</v>
       </c>
     </row>
@@ -30370,23 +35300,23 @@
         <v>1230771.1000000001</v>
       </c>
       <c r="G31" s="36">
+        <f t="shared" si="0"/>
+        <v>169081.4</v>
+      </c>
+      <c r="H31" s="35">
         <f t="shared" si="1"/>
-        <v>169081.4</v>
-      </c>
-      <c r="H31" s="35">
+        <v>-0.72923183872088981</v>
+      </c>
+      <c r="I31" s="35">
         <f t="shared" si="2"/>
-        <v>-0.72923183872088981</v>
-      </c>
-      <c r="I31" s="35">
+        <v>-0.29002766422468162</v>
+      </c>
+      <c r="J31" s="35">
         <f t="shared" si="3"/>
-        <v>-0.29002766422468162</v>
-      </c>
-      <c r="J31" s="35">
+        <v>-6.1669893236903951E-2</v>
+      </c>
+      <c r="K31" s="35">
         <f t="shared" si="4"/>
-        <v>-6.1669893236903951E-2</v>
-      </c>
-      <c r="K31" s="35">
-        <f t="shared" si="5"/>
         <v>-0.21167226389644594</v>
       </c>
     </row>
@@ -30410,23 +35340,23 @@
         <v>1294196.6000000001</v>
       </c>
       <c r="G32" s="36">
+        <f t="shared" si="0"/>
+        <v>179201.5</v>
+      </c>
+      <c r="H32" s="35">
         <f t="shared" si="1"/>
-        <v>179201.5</v>
-      </c>
-      <c r="H32" s="35">
+        <v>1.8626444159178432</v>
+      </c>
+      <c r="I32" s="35">
         <f t="shared" si="2"/>
-        <v>1.8626444159178432</v>
-      </c>
-      <c r="I32" s="35">
+        <v>0.16394368991446262</v>
+      </c>
+      <c r="J32" s="35">
         <f t="shared" si="3"/>
-        <v>0.16394368991446262</v>
-      </c>
-      <c r="J32" s="35">
+        <v>5.1533140484042887E-2</v>
+      </c>
+      <c r="K32" s="35">
         <f t="shared" si="4"/>
-        <v>5.1533140484042887E-2</v>
-      </c>
-      <c r="K32" s="35">
-        <f t="shared" si="5"/>
         <v>5.985341971381835E-2</v>
       </c>
     </row>
@@ -30450,23 +35380,23 @@
         <v>1381839.2</v>
       </c>
       <c r="G33" s="36">
+        <f t="shared" si="0"/>
+        <v>207833.59999999998</v>
+      </c>
+      <c r="H33" s="35">
         <f t="shared" si="1"/>
-        <v>207833.59999999998</v>
-      </c>
-      <c r="H33" s="35">
+        <v>0.51602548973330198</v>
+      </c>
+      <c r="I33" s="35">
         <f t="shared" si="2"/>
-        <v>0.51602548973330198</v>
-      </c>
-      <c r="I33" s="35">
+        <v>0.21036481287749476</v>
+      </c>
+      <c r="J33" s="35">
         <f t="shared" si="3"/>
-        <v>0.21036481287749476</v>
-      </c>
-      <c r="J33" s="35">
+        <v>6.7719695755652468E-2</v>
+      </c>
+      <c r="K33" s="35">
         <f t="shared" si="4"/>
-        <v>6.7719695755652468E-2</v>
-      </c>
-      <c r="K33" s="35">
-        <f t="shared" si="5"/>
         <v>0.15977600633923253</v>
       </c>
     </row>
@@ -30490,23 +35420,23 @@
         <v>1451350.9</v>
       </c>
       <c r="G34" s="36">
+        <f t="shared" si="0"/>
+        <v>228518.59999999998</v>
+      </c>
+      <c r="H34" s="35">
         <f t="shared" si="1"/>
-        <v>228518.59999999998</v>
-      </c>
-      <c r="H34" s="35">
+        <v>0.11799269634683887</v>
+      </c>
+      <c r="I34" s="35">
         <f t="shared" si="2"/>
-        <v>0.11799269634683887</v>
-      </c>
-      <c r="I34" s="35">
+        <v>0.10281118397578454</v>
+      </c>
+      <c r="J34" s="35">
         <f t="shared" si="3"/>
-        <v>0.10281118397578454</v>
-      </c>
-      <c r="J34" s="35">
+        <v>5.0303754590259098E-2</v>
+      </c>
+      <c r="K34" s="35">
         <f t="shared" si="4"/>
-        <v>5.0303754590259098E-2</v>
-      </c>
-      <c r="K34" s="35">
-        <f t="shared" si="5"/>
         <v>9.9526736774034619E-2</v>
       </c>
     </row>
@@ -30530,23 +35460,23 @@
         <v>1505876</v>
       </c>
       <c r="G35" s="36">
+        <f t="shared" si="0"/>
+        <v>258237.59999999998</v>
+      </c>
+      <c r="H35" s="35">
         <f t="shared" si="1"/>
-        <v>258237.59999999998</v>
-      </c>
-      <c r="H35" s="35">
+        <v>-0.16368273216999668</v>
+      </c>
+      <c r="I35" s="35">
         <f t="shared" si="2"/>
-        <v>-0.16368273216999668</v>
-      </c>
-      <c r="I35" s="35">
+        <v>7.7086587002731077E-2</v>
+      </c>
+      <c r="J35" s="35">
         <f t="shared" si="3"/>
-        <v>7.7086587002731077E-2</v>
-      </c>
-      <c r="J35" s="35">
+        <v>3.7568516338812412E-2</v>
+      </c>
+      <c r="K35" s="35">
         <f t="shared" si="4"/>
-        <v>3.7568516338812412E-2</v>
-      </c>
-      <c r="K35" s="35">
-        <f t="shared" si="5"/>
         <v>0.13005068296410008</v>
       </c>
     </row>
@@ -30570,23 +35500,23 @@
         <v>1605127.9</v>
       </c>
       <c r="G36" s="36">
+        <f t="shared" si="0"/>
+        <v>286561.10000000003</v>
+      </c>
+      <c r="H36" s="35">
         <f t="shared" si="1"/>
-        <v>286561.10000000003</v>
-      </c>
-      <c r="H36" s="35">
+        <v>0.13751100116552886</v>
+      </c>
+      <c r="I36" s="35">
         <f t="shared" si="2"/>
-        <v>0.13751100116552886</v>
-      </c>
-      <c r="I36" s="35">
+        <v>0.11357652526686896</v>
+      </c>
+      <c r="J36" s="35">
         <f t="shared" si="3"/>
-        <v>0.11357652526686896</v>
-      </c>
-      <c r="J36" s="35">
+        <v>6.5909742900477797E-2</v>
+      </c>
+      <c r="K36" s="35">
         <f t="shared" si="4"/>
-        <v>6.5909742900477797E-2</v>
-      </c>
-      <c r="K36" s="35">
-        <f t="shared" si="5"/>
         <v>0.10968000012391713</v>
       </c>
     </row>
@@ -30610,23 +35540,23 @@
         <v>1604601</v>
       </c>
       <c r="G37" s="36">
+        <f t="shared" si="0"/>
+        <v>263269.60000000003</v>
+      </c>
+      <c r="H37" s="35">
         <f t="shared" si="1"/>
-        <v>263269.60000000003</v>
-      </c>
-      <c r="H37" s="35">
+        <v>9.284410345844285E-2</v>
+      </c>
+      <c r="I37" s="35">
         <f t="shared" si="2"/>
-        <v>9.284410345844285E-2</v>
-      </c>
-      <c r="I37" s="35">
+        <v>-5.6376935204878714E-2</v>
+      </c>
+      <c r="J37" s="35">
         <f t="shared" si="3"/>
-        <v>-5.6376935204878714E-2</v>
-      </c>
-      <c r="J37" s="35">
+        <v>-3.2826044578747083E-4</v>
+      </c>
+      <c r="K37" s="35">
         <f t="shared" si="4"/>
-        <v>-3.2826044578747083E-4</v>
-      </c>
-      <c r="K37" s="35">
-        <f t="shared" si="5"/>
         <v>-8.1279350197915892E-2</v>
       </c>
     </row>
@@ -30650,23 +35580,23 @@
         <v>1616987.7</v>
       </c>
       <c r="G38" s="36">
+        <f t="shared" si="0"/>
+        <v>263457.59999999998</v>
+      </c>
+      <c r="H38" s="35">
         <f t="shared" si="1"/>
-        <v>263457.59999999998</v>
-      </c>
-      <c r="H38" s="35">
+        <v>-4.2141437102604019E-2</v>
+      </c>
+      <c r="I38" s="35">
         <f t="shared" si="2"/>
-        <v>-4.2141437102604019E-2</v>
-      </c>
-      <c r="I38" s="35">
+        <v>-6.3841446041713818E-3</v>
+      </c>
+      <c r="J38" s="35">
         <f t="shared" si="3"/>
-        <v>-6.3841446041713818E-3</v>
-      </c>
-      <c r="J38" s="35">
+        <v>7.7194891440301693E-3</v>
+      </c>
+      <c r="K38" s="35">
         <f t="shared" si="4"/>
-        <v>7.7194891440301693E-3</v>
-      </c>
-      <c r="K38" s="35">
-        <f t="shared" si="5"/>
         <v>7.1409688015609005E-4</v>
       </c>
     </row>
@@ -30690,23 +35620,23 @@
         <v>1639468</v>
       </c>
       <c r="G39" s="36">
+        <f t="shared" si="0"/>
+        <v>280800.7</v>
+      </c>
+      <c r="H39" s="35">
         <f t="shared" si="1"/>
-        <v>280800.7</v>
-      </c>
-      <c r="H39" s="35">
+        <v>-0.32333593689135171</v>
+      </c>
+      <c r="I39" s="35">
         <f t="shared" si="2"/>
-        <v>-0.32333593689135171</v>
-      </c>
-      <c r="I39" s="35">
+        <v>3.6903864635221086E-3</v>
+      </c>
+      <c r="J39" s="35">
         <f t="shared" si="3"/>
-        <v>3.6903864635221086E-3</v>
-      </c>
-      <c r="J39" s="35">
+        <v>1.3902579469219245E-2</v>
+      </c>
+      <c r="K39" s="35">
         <f t="shared" si="4"/>
-        <v>1.3902579469219245E-2</v>
-      </c>
-      <c r="K39" s="35">
-        <f t="shared" si="5"/>
         <v>6.5828808886135889E-2</v>
       </c>
     </row>
@@ -30730,23 +35660,23 @@
         <v>1707689.1</v>
       </c>
       <c r="G40" s="36">
+        <f t="shared" si="0"/>
+        <v>302599.60000000003</v>
+      </c>
+      <c r="H40" s="35">
         <f t="shared" si="1"/>
-        <v>302599.60000000003</v>
-      </c>
-      <c r="H40" s="35">
+        <v>5.3543172263946094E-2</v>
+      </c>
+      <c r="I40" s="35">
         <f t="shared" si="2"/>
-        <v>5.3543172263946094E-2</v>
-      </c>
-      <c r="I40" s="35">
+        <v>7.5038222060079374E-2</v>
+      </c>
+      <c r="J40" s="35">
         <f t="shared" si="3"/>
-        <v>7.5038222060079374E-2</v>
-      </c>
-      <c r="J40" s="35">
+        <v>4.1611730146608593E-2</v>
+      </c>
+      <c r="K40" s="35">
         <f t="shared" si="4"/>
-        <v>4.1611730146608593E-2</v>
-      </c>
-      <c r="K40" s="35">
-        <f t="shared" si="5"/>
         <v>7.7631216731297401E-2</v>
       </c>
     </row>
@@ -31336,15 +36266,15 @@
         <v>0.5</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:D98" si="1">C95*A95</f>
+        <f>C95*A95</f>
         <v>40</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:E98" si="2">B95-D95</f>
+        <f>B95-D95</f>
         <v>20</v>
       </c>
       <c r="F95">
-        <f t="shared" ref="F95:F98" si="3">E95</f>
+        <f>E95</f>
         <v>20</v>
       </c>
     </row>
@@ -31359,15 +36289,15 @@
         <v>0.5</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f>C96*A96</f>
         <v>45</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f>B96-D96</f>
         <v>15</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f>E96</f>
         <v>15</v>
       </c>
     </row>
@@ -31382,15 +36312,15 @@
         <v>0.5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f>C97*A97</f>
         <v>50</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f>B97-D97</f>
         <v>10</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f>E97</f>
         <v>10</v>
       </c>
     </row>
@@ -31405,15 +36335,15 @@
         <v>0.5</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f>C98*A98</f>
         <v>60</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f>B98-D98</f>
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f>E98</f>
         <v>0</v>
       </c>
     </row>
@@ -31484,19 +36414,19 @@
         <v>45</v>
       </c>
       <c r="C113" s="39">
-        <f t="shared" ref="C113:C116" si="4">1/3</f>
+        <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D113" s="40">
-        <f t="shared" ref="D113:D116" si="5">C113*A113</f>
+        <f>C113*A113</f>
         <v>26.666666666666664</v>
       </c>
       <c r="E113" s="40">
-        <f t="shared" ref="E113:E116" si="6">B113-D113</f>
+        <f>B113-D113</f>
         <v>18.333333333333336</v>
       </c>
       <c r="F113" s="40">
-        <f t="shared" ref="F113:F116" si="7">E113</f>
+        <f>E113</f>
         <v>18.333333333333336</v>
       </c>
     </row>
@@ -31508,11 +36438,11 @@
         <v>45</v>
       </c>
       <c r="C114" s="39">
-        <f t="shared" si="4"/>
+        <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D114" s="40">
-        <f t="shared" si="5"/>
+        <f>C114*A114</f>
         <v>30</v>
       </c>
       <c r="E114" s="40">
@@ -31520,7 +36450,7 @@
         <v>15</v>
       </c>
       <c r="F114" s="40">
-        <f t="shared" si="7"/>
+        <f>E114</f>
         <v>15</v>
       </c>
     </row>
@@ -31532,7 +36462,7 @@
         <v>45</v>
       </c>
       <c r="C115" s="39">
-        <f t="shared" si="4"/>
+        <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D115" s="40">
@@ -31540,11 +36470,11 @@
         <v>33.333333333333329</v>
       </c>
       <c r="E115" s="40">
-        <f t="shared" si="6"/>
+        <f>B115-D115</f>
         <v>11.666666666666671</v>
       </c>
       <c r="F115" s="40">
-        <f t="shared" si="7"/>
+        <f>E115</f>
         <v>11.666666666666671</v>
       </c>
     </row>
@@ -31556,19 +36486,19 @@
         <v>45</v>
       </c>
       <c r="C116" s="39">
-        <f t="shared" si="4"/>
+        <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D116" s="40">
-        <f t="shared" si="5"/>
+        <f>C116*A116</f>
         <v>40</v>
       </c>
       <c r="E116" s="40">
-        <f t="shared" si="6"/>
+        <f>B116-D116</f>
         <v>5</v>
       </c>
       <c r="F116" s="40">
-        <f t="shared" si="7"/>
+        <f>E116</f>
         <v>5</v>
       </c>
     </row>
@@ -31636,15 +36566,15 @@
         <v>0.1</v>
       </c>
       <c r="D130" s="40">
-        <f t="shared" ref="D130:D131" si="8">C130*A130</f>
+        <f>C130*A130</f>
         <v>1</v>
       </c>
       <c r="E130" s="40">
-        <f t="shared" ref="E130" si="9">B130-D130</f>
+        <f>B130-D130</f>
         <v>79</v>
       </c>
       <c r="F130" s="40">
-        <f t="shared" ref="F130:F133" si="10">E130</f>
+        <f>E130</f>
         <v>79</v>
       </c>
     </row>
@@ -31659,7 +36589,7 @@
         <v>0.1</v>
       </c>
       <c r="D131" s="40">
-        <f t="shared" si="8"/>
+        <f>C131*A131</f>
         <v>2.5</v>
       </c>
       <c r="E131" s="40">
@@ -31667,7 +36597,7 @@
         <v>77.5</v>
       </c>
       <c r="F131" s="40">
-        <f t="shared" si="10"/>
+        <f>E131</f>
         <v>77.5</v>
       </c>
     </row>
@@ -31686,11 +36616,11 @@
         <v>8</v>
       </c>
       <c r="E132" s="40">
-        <f t="shared" ref="E132:E133" si="11">B132-D132</f>
+        <f>B132-D132</f>
         <v>72</v>
       </c>
       <c r="F132" s="40">
-        <f t="shared" si="10"/>
+        <f>E132</f>
         <v>72</v>
       </c>
     </row>
@@ -31705,15 +36635,15 @@
         <v>0.1</v>
       </c>
       <c r="D133" s="40">
-        <f t="shared" ref="D133" si="12">C133*A133</f>
+        <f>C133*A133</f>
         <v>15</v>
       </c>
       <c r="E133" s="40">
-        <f t="shared" si="11"/>
+        <f>B133-D133</f>
         <v>65</v>
       </c>
       <c r="F133" s="40">
-        <f t="shared" si="10"/>
+        <f>E133</f>
         <v>65</v>
       </c>
     </row>
@@ -31781,15 +36711,15 @@
         <v>4</v>
       </c>
       <c r="D146" s="40">
-        <f t="shared" ref="D146:D147" si="13">C146*A146</f>
+        <f>C146*A146</f>
         <v>160</v>
       </c>
       <c r="E146" s="40">
-        <f t="shared" ref="E146" si="14">B146-D146</f>
+        <f>B146-D146</f>
         <v>60</v>
       </c>
       <c r="F146" s="40">
-        <f t="shared" ref="F146:F149" si="15">E146</f>
+        <f>E146</f>
         <v>60</v>
       </c>
     </row>
@@ -31804,7 +36734,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="40">
-        <f t="shared" si="13"/>
+        <f>C147*A147</f>
         <v>120</v>
       </c>
       <c r="E147" s="40">
@@ -31812,7 +36742,7 @@
         <v>100</v>
       </c>
       <c r="F147" s="40">
-        <f t="shared" si="15"/>
+        <f>E147</f>
         <v>100</v>
       </c>
     </row>
@@ -31831,11 +36761,11 @@
         <v>80</v>
       </c>
       <c r="E148" s="40">
-        <f t="shared" ref="E148:E149" si="16">B148-D148</f>
+        <f>B148-D148</f>
         <v>140</v>
       </c>
       <c r="F148" s="40">
-        <f t="shared" si="15"/>
+        <f>E148</f>
         <v>140</v>
       </c>
     </row>
@@ -31850,15 +36780,15 @@
         <v>4</v>
       </c>
       <c r="D149" s="40">
-        <f t="shared" ref="D149" si="17">C149*A149</f>
+        <f>C149*A149</f>
         <v>40</v>
       </c>
       <c r="E149" s="40">
-        <f t="shared" si="16"/>
+        <f>B149-D149</f>
         <v>180</v>
       </c>
       <c r="F149" s="40">
-        <f t="shared" si="15"/>
+        <f>E149</f>
         <v>180</v>
       </c>
     </row>
@@ -31924,19 +36854,19 @@
         <v>20</v>
       </c>
       <c r="C162" s="39">
-        <f t="shared" ref="C162:C165" si="18">1/2</f>
+        <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="D162" s="40">
-        <f t="shared" ref="D162:D163" si="19">C162*A162</f>
+        <f>C162*A162</f>
         <v>1</v>
       </c>
       <c r="E162" s="40">
-        <f t="shared" ref="E162:E165" si="20">B162+D162</f>
+        <f>B162+D162</f>
         <v>21</v>
       </c>
       <c r="F162" s="40">
-        <f t="shared" ref="F162:F165" si="21">E162</f>
+        <f>E162</f>
         <v>21</v>
       </c>
     </row>
@@ -31948,19 +36878,19 @@
         <v>20</v>
       </c>
       <c r="C163" s="39">
-        <f t="shared" si="18"/>
+        <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="D163" s="40">
-        <f t="shared" si="19"/>
+        <f>C163*A163</f>
         <v>1.5</v>
       </c>
       <c r="E163" s="40">
-        <f t="shared" si="20"/>
+        <f>B163+D163</f>
         <v>21.5</v>
       </c>
       <c r="F163" s="40">
-        <f t="shared" si="21"/>
+        <f>E163</f>
         <v>21.5</v>
       </c>
     </row>
@@ -31972,7 +36902,7 @@
         <v>20</v>
       </c>
       <c r="C164" s="39">
-        <f t="shared" si="18"/>
+        <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="D164" s="40">
@@ -31980,11 +36910,11 @@
         <v>2</v>
       </c>
       <c r="E164" s="40">
-        <f t="shared" si="20"/>
+        <f>B164+D164</f>
         <v>22</v>
       </c>
       <c r="F164" s="40">
-        <f t="shared" si="21"/>
+        <f>E164</f>
         <v>22</v>
       </c>
     </row>
@@ -31996,19 +36926,19 @@
         <v>20</v>
       </c>
       <c r="C165" s="39">
-        <f t="shared" si="18"/>
+        <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="D165" s="40">
-        <f t="shared" ref="D165" si="22">C165*A165</f>
+        <f>C165*A165</f>
         <v>2.5</v>
       </c>
       <c r="E165" s="40">
-        <f t="shared" si="20"/>
+        <f>B165+D165</f>
         <v>22.5</v>
       </c>
       <c r="F165" s="40">
-        <f t="shared" si="21"/>
+        <f>E165</f>
         <v>22.5</v>
       </c>
     </row>
@@ -32076,15 +37006,15 @@
         <v>2</v>
       </c>
       <c r="D179" s="40">
-        <f t="shared" ref="D179:D180" si="23">C179*A179</f>
+        <f>C179*A179</f>
         <v>4</v>
       </c>
       <c r="E179" s="40">
-        <f t="shared" ref="E179:E182" si="24">B179+D179</f>
+        <f>B179+D179</f>
         <v>24</v>
       </c>
       <c r="F179" s="40">
-        <f t="shared" ref="F179:F182" si="25">E179</f>
+        <f>E179</f>
         <v>24</v>
       </c>
     </row>
@@ -32099,15 +37029,15 @@
         <v>2</v>
       </c>
       <c r="D180" s="40">
-        <f t="shared" si="23"/>
+        <f>C180*A180</f>
         <v>6</v>
       </c>
       <c r="E180" s="40">
-        <f t="shared" si="24"/>
+        <f>B180+D180</f>
         <v>26</v>
       </c>
       <c r="F180" s="40">
-        <f t="shared" si="25"/>
+        <f>E180</f>
         <v>26</v>
       </c>
     </row>
@@ -32126,11 +37056,11 @@
         <v>8</v>
       </c>
       <c r="E181" s="40">
-        <f t="shared" si="24"/>
+        <f>B181+D181</f>
         <v>28</v>
       </c>
       <c r="F181" s="40">
-        <f t="shared" si="25"/>
+        <f>E181</f>
         <v>28</v>
       </c>
     </row>
@@ -32145,15 +37075,15 @@
         <v>2</v>
       </c>
       <c r="D182" s="40">
-        <f t="shared" ref="D182" si="26">C182*A182</f>
+        <f>C182*A182</f>
         <v>10</v>
       </c>
       <c r="E182" s="40">
-        <f t="shared" si="24"/>
+        <f>B182+D182</f>
         <v>30</v>
       </c>
       <c r="F182" s="40">
-        <f t="shared" si="25"/>
+        <f>E182</f>
         <v>30</v>
       </c>
     </row>
@@ -32162,6 +37092,11 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -32169,11 +37104,6 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32184,10 +37114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="Q253" sqref="Q253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32217,7 +37147,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="45">
-        <f>$C$1-A3*$C$2</f>
+        <f t="shared" ref="B3:B8" si="0">$C$1-A3*$C$2</f>
         <v>85</v>
       </c>
     </row>
@@ -32226,7 +37156,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B8" si="0">$C$1-A4*$C$2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -32291,7 +37221,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <f>$C$19-A21*$C$20</f>
+        <f t="shared" ref="B21:B26" si="1">$C$19-A21*$C$20</f>
         <v>34</v>
       </c>
     </row>
@@ -32300,7 +37230,7 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B26" si="1">$C$19-A22*$C$20</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -32365,7 +37295,7 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <f>$C$35-A37*$C$36</f>
+        <f t="shared" ref="B37:B42" si="2">$C$35-A37*$C$36</f>
         <v>485</v>
       </c>
     </row>
@@ -32374,7 +37304,7 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B42" si="2">$C$35-A38*$C$36</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
     </row>
@@ -32439,7 +37369,7 @@
         <v>30</v>
       </c>
       <c r="B53">
-        <f>$C$51-A53*$C$52</f>
+        <f t="shared" ref="B53:B58" si="3">$C$51-A53*$C$52</f>
         <v>68</v>
       </c>
     </row>
@@ -32448,7 +37378,7 @@
         <v>50</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B58" si="3">$C$51-A54*$C$52</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -32587,7 +37517,7 @@
         <v>-3</v>
       </c>
       <c r="B87">
-        <f>$C$85+$C$86*A87</f>
+        <f t="shared" ref="B87:B92" si="5">$C$85+$C$86*A87</f>
         <v>-11</v>
       </c>
     </row>
@@ -32596,7 +37526,7 @@
         <v>-2</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:B92" si="5">$C$85+$C$86*A88</f>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
     </row>
@@ -32750,11 +37680,11 @@
         <v>-10</v>
       </c>
       <c r="B120">
-        <f t="shared" ref="B120:B122" si="6">$A$117+$B$117*A120</f>
+        <f>$A$117+$B$117*A120</f>
         <v>-10</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:C122" si="7">$C$117+$B$117*A120</f>
+        <f>$C$117+$B$117*A120</f>
         <v>0</v>
       </c>
     </row>
@@ -32763,11 +37693,11 @@
         <v>10</v>
       </c>
       <c r="B121">
-        <f t="shared" si="6"/>
+        <f>$A$117+$B$117*A121</f>
         <v>0</v>
       </c>
       <c r="C121">
-        <f t="shared" si="7"/>
+        <f>$C$117+$B$117*A121</f>
         <v>10</v>
       </c>
     </row>
@@ -32776,11 +37706,11 @@
         <v>18</v>
       </c>
       <c r="B122">
-        <f t="shared" si="6"/>
+        <f>$A$117+$B$117*A122</f>
         <v>4</v>
       </c>
       <c r="C122">
-        <f t="shared" si="7"/>
+        <f>$C$117+$B$117*A122</f>
         <v>14</v>
       </c>
     </row>
@@ -32831,11 +37761,11 @@
         <v>300</v>
       </c>
       <c r="B137">
-        <f t="shared" ref="B137:B140" si="8">$A$134-$B$134*A137</f>
+        <f>$A$134-$B$134*A137</f>
         <v>0</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:C140" si="9">$A$134-$C$134*A137</f>
+        <f>$A$134-$C$134*A137</f>
         <v>150</v>
       </c>
     </row>
@@ -32844,11 +37774,11 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <f t="shared" si="8"/>
+        <f>$A$134-$B$134*A138</f>
         <v>150</v>
       </c>
       <c r="C138">
-        <f t="shared" si="9"/>
+        <f>$A$134-$C$134*A138</f>
         <v>225</v>
       </c>
     </row>
@@ -32857,11 +37787,11 @@
         <v>70</v>
       </c>
       <c r="B139">
-        <f t="shared" si="8"/>
+        <f>$A$134-$B$134*A139</f>
         <v>230</v>
       </c>
       <c r="C139">
-        <f t="shared" si="9"/>
+        <f>$A$134-$C$134*A139</f>
         <v>265</v>
       </c>
     </row>
@@ -32870,11 +37800,11 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <f t="shared" si="8"/>
+        <f>$A$134-$B$134*A140</f>
         <v>300</v>
       </c>
       <c r="C140">
-        <f t="shared" si="9"/>
+        <f>$A$134-$C$134*A140</f>
         <v>300</v>
       </c>
     </row>
@@ -33059,14 +37989,14 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <f>$A$186+$B$186*B188</f>
+        <f t="shared" ref="A188:A193" si="6">$A$186+$B$186*B188</f>
         <v>2.75</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <f>$C$186+$D$186*D188</f>
+        <f t="shared" ref="C188:C193" si="7">$C$186+$D$186*D188</f>
         <v>2.8</v>
       </c>
       <c r="D188">
@@ -33075,14 +38005,14 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <f>$A$186+$B$186*B189</f>
+        <f t="shared" si="6"/>
         <v>22.25</v>
       </c>
       <c r="B189">
         <v>27</v>
       </c>
       <c r="C189">
-        <f>$C$186+$D$186*D189</f>
+        <f t="shared" si="7"/>
         <v>23.6</v>
       </c>
       <c r="D189">
@@ -33091,14 +38021,14 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <f t="shared" ref="A190:A193" si="10">$A$186+$B$186*B190</f>
+        <f t="shared" si="6"/>
         <v>184.25</v>
       </c>
       <c r="B190">
         <v>243</v>
       </c>
       <c r="C190">
-        <f t="shared" ref="C190:C193" si="11">$C$186+$D$186*D190</f>
+        <f t="shared" si="7"/>
         <v>196.4</v>
       </c>
       <c r="D190">
@@ -33107,14 +38037,14 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>551</v>
       </c>
       <c r="B191">
         <v>732</v>
       </c>
       <c r="C191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>587.6</v>
       </c>
       <c r="D191">
@@ -33123,14 +38053,14 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1649</v>
       </c>
       <c r="B192">
         <v>2196</v>
       </c>
       <c r="C192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1758.8000000000002</v>
       </c>
       <c r="D192">
@@ -33139,34 +38069,362 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4940</v>
       </c>
       <c r="B193">
         <v>6584</v>
       </c>
       <c r="C193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5269.2000000000007</v>
       </c>
       <c r="D193">
         <v>6584</v>
       </c>
     </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="46">
+        <v>3.32</v>
+      </c>
+      <c r="B202" s="46"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>82</v>
+      </c>
+      <c r="B203" t="s">
+        <v>83</v>
+      </c>
+      <c r="C203" t="s">
+        <v>82</v>
+      </c>
+      <c r="D203" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>87</v>
+      </c>
+      <c r="B205" t="s">
+        <v>77</v>
+      </c>
+      <c r="C205" t="s">
+        <v>86</v>
+      </c>
+      <c r="D205" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <f>$A$204+$B$204*B206</f>
+        <v>252</v>
+      </c>
+      <c r="B206">
+        <v>1000</v>
+      </c>
+      <c r="C206">
+        <f>$C$204+$D$204*D206</f>
+        <v>342</v>
+      </c>
+      <c r="D206">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <f>$A$204+$B$204*B207</f>
+        <v>502</v>
+      </c>
+      <c r="B207">
+        <v>2000</v>
+      </c>
+      <c r="C207">
+        <f>$C$204+$D$204*D207</f>
+        <v>682</v>
+      </c>
+      <c r="D207">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <f>$A$204+$B$204*B208</f>
+        <v>752</v>
+      </c>
+      <c r="B208">
+        <v>3000</v>
+      </c>
+      <c r="C208">
+        <f>$C$204+$D$204*D208</f>
+        <v>1022.0000000000001</v>
+      </c>
+      <c r="D208">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <f>$A$204+$B$204*B209</f>
+        <v>1002</v>
+      </c>
+      <c r="B209">
+        <v>4000</v>
+      </c>
+      <c r="C209">
+        <f>$C$204+$D$204*D209</f>
+        <v>1362</v>
+      </c>
+      <c r="D209">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="46">
+        <v>3.33</v>
+      </c>
+      <c r="B221" s="46"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>82</v>
+      </c>
+      <c r="B222" t="s">
+        <v>83</v>
+      </c>
+      <c r="C222" t="s">
+        <v>82</v>
+      </c>
+      <c r="D222" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223">
+        <v>0.45</v>
+      </c>
+      <c r="C223">
+        <v>20</v>
+      </c>
+      <c r="D223">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>88</v>
+      </c>
+      <c r="B224" t="s">
+        <v>77</v>
+      </c>
+      <c r="C224" t="s">
+        <v>89</v>
+      </c>
+      <c r="D224" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <f>$A$223+$B$223*B225</f>
+        <v>145</v>
+      </c>
+      <c r="B225">
+        <v>300</v>
+      </c>
+      <c r="C225">
+        <f>$C$223+$D$223*D225</f>
+        <v>155</v>
+      </c>
+      <c r="D225">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <f>$A$223+$B$223*B226</f>
+        <v>10.45</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <f>$C$223+$D$223*D226</f>
+        <v>20.45</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="46">
+        <v>3.34</v>
+      </c>
+      <c r="B240" s="46"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>82</v>
+      </c>
+      <c r="B241" t="s">
+        <v>83</v>
+      </c>
+      <c r="C241" t="s">
+        <v>82</v>
+      </c>
+      <c r="D241" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>400</v>
+      </c>
+      <c r="B242">
+        <f>6/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="C242">
+        <v>800</v>
+      </c>
+      <c r="D242">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>90</v>
+      </c>
+      <c r="B243" t="s">
+        <v>77</v>
+      </c>
+      <c r="C243" t="s">
+        <v>91</v>
+      </c>
+      <c r="D243" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <f>$A$242+$B$242*B244</f>
+        <v>880</v>
+      </c>
+      <c r="B244">
+        <v>800</v>
+      </c>
+      <c r="C244">
+        <f>$C$242+$D$242*D244</f>
+        <v>920</v>
+      </c>
+      <c r="D244">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <f>$A$242+$B$242*B245</f>
+        <v>1240</v>
+      </c>
+      <c r="B245">
+        <v>1400</v>
+      </c>
+      <c r="C245">
+        <f>$C$242+$D$242*D245</f>
+        <v>1010</v>
+      </c>
+      <c r="D245">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="46">
+        <v>3.35</v>
+      </c>
+      <c r="B258" s="46"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>82</v>
+      </c>
+      <c r="B259" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>1000</v>
+      </c>
+      <c r="B260">
+        <f>6/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>92</v>
+      </c>
+      <c r="B261" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <f>$A$260+$B$260*B262</f>
+        <v>3700</v>
+      </c>
+      <c r="B262">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <f>$A$260+$B$260*B263</f>
+        <v>1600</v>
+      </c>
+      <c r="B263">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A240:B240"/>
     <mergeCell ref="A184:B184"/>
     <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A102:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11739D6C-2BF4-4190-B78B-39AA8A483535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468600C-EA1A-484E-95E6-D552E3A912A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>C=1000+0.6(Y)</t>
+  </si>
+  <si>
+    <t>QD=145-0.5(P)</t>
+  </si>
+  <si>
+    <t>Precio (P)</t>
+  </si>
+  <si>
+    <t>QD=280-5(P)</t>
   </si>
 </sst>
 </file>
@@ -12794,6 +12803,543 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ecuación de demanda.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$278</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QD=145-0.5(P)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$279:$A$282</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$279:$B$282</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF04-489B-85EF-5C4C64D899AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="95"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Cantidad (Q) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Precio (P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -13365,6 +13911,543 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ecuación de demanda.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$296</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QD=280-5(P)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$297:$A$300</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$297:$B$300</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D7F-4B6D-808A-200D99222916}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Cantidad (Q) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Precio (P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -17371,7 +18454,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -29187,7 +30350,1109 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34116,6 +36381,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Gráfico 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B785F4E-76FE-434C-9965-7B9BAA174C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Gráfico 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5F3811-A3EE-41A9-B786-D140D61ECD53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -37092,11 +39433,6 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -37104,6 +39440,11 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37114,10 +39455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="Q253" sqref="Q253"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B303" sqref="B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -38407,24 +40748,142 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>145</v>
+      </c>
+      <c r="B276">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="46">
+        <v>3.36</v>
+      </c>
+      <c r="B277" s="46"/>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>93</v>
+      </c>
+      <c r="B278" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <f>$A$276-$B$276*B279</f>
+        <v>145</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <f>$A$276-$B$276*B280</f>
+        <v>130</v>
+      </c>
+      <c r="B280">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <f>$A$276-$B$276*B281</f>
+        <v>115</v>
+      </c>
+      <c r="B281">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <f>$A$276-$B$276*B282</f>
+        <v>100</v>
+      </c>
+      <c r="B282">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>280</v>
+      </c>
+      <c r="B294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="46">
+        <v>3.37</v>
+      </c>
+      <c r="B295" s="46"/>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>95</v>
+      </c>
+      <c r="B296" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <f>$A$294-$B$294*B297</f>
+        <v>280</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <f t="shared" ref="A298:A301" si="8">$A$294-$B$294*B298</f>
+        <v>130</v>
+      </c>
+      <c r="B298">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="B299">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B300">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A184:B184"/>
+  <mergeCells count="18">
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A184:B184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468600C-EA1A-484E-95E6-D552E3A912A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB8236-9888-4E6D-953D-A0C13F715AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -322,6 +322,33 @@
   <si>
     <t>QD=280-5(P)</t>
   </si>
+  <si>
+    <t>QD=87-7.5(P)</t>
+  </si>
+  <si>
+    <t>QD=416-0.8(P)</t>
+  </si>
+  <si>
+    <t>QD=342-(5/4)P</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>PMgC</t>
+  </si>
+  <si>
+    <t>C=34+0.4(Y)</t>
+  </si>
+  <si>
+    <t>C=52.5+0.7(Y)</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -551,6 +578,9 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14326,6 +14356,2679 @@
                 <a:r>
                   <a:rPr lang="es-MX" baseline="0"/>
                   <a:t>Precio (P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ecuación de demanda.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$313</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QD=87-7.5(P)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$314:$A$317</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$314:$B$317</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B14B-4C61-9212-36F9778027F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Cantidad (Q) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Precio (P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ecuación de demanda.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$333</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QD=416-0.8(P)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$334:$A$337</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$334:$B$337</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC6D-4164-ADE3-3DB60D030535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Cantidad (Q) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Precio (P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Ecuación de demanda.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$352</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QD=342-(5/4)P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$353:$A$356</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$353:$B$356</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-114D-4155-BFE7-35789D3D67CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Cantidad (Q) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Precio (P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$372</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=34+0.4(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$373:$B$375</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$373:$A$375</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-329A-4946-83D0-C71E00481E6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$392</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=52.5+0.7(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$393:$B$395</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$393:$A$395</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BDB-4D23-B69D-CDC9E55073DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-MX"/>
               </a:p>
@@ -18574,6 +21277,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -31453,6 +34356,2761 @@
 </file>
 
 <file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -36457,6 +42115,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Gráfico 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD94DDF-C694-4E89-8A9F-E941C7F3EA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Gráfico 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D94F13B-D634-450D-B8C8-D518EAF65313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Gráfico 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81119B1C-CB3B-4BC4-A5E2-4F26DEE56910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Gráfico 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9DF20F-16F9-46BF-9870-CCE889E5A5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Gráfico 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438D20F8-BCC7-4E82-987D-269ED0E8BF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -39433,6 +45281,11 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -39440,11 +45293,6 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39455,10 +45303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:D300"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B303" sqref="B303"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -40839,7 +46687,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <f t="shared" ref="A298:A301" si="8">$A$294-$B$294*B298</f>
+        <f t="shared" ref="A298:A300" si="8">$A$294-$B$294*B298</f>
         <v>130</v>
       </c>
       <c r="B298">
@@ -40864,8 +46712,349 @@
         <v>50</v>
       </c>
     </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>87</v>
+      </c>
+      <c r="B311">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="46">
+        <v>3.38</v>
+      </c>
+      <c r="B312" s="46"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>96</v>
+      </c>
+      <c r="B313" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <f>$A$311-$B$311*B314</f>
+        <v>87</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <f t="shared" ref="A315:A317" si="9">$A$311-$B$311*B315</f>
+        <v>49.5</v>
+      </c>
+      <c r="B315">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <f t="shared" si="9"/>
+        <v>19.5</v>
+      </c>
+      <c r="B316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="B317">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>416</v>
+      </c>
+      <c r="B331">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="46">
+        <v>3.39</v>
+      </c>
+      <c r="B332" s="46"/>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>97</v>
+      </c>
+      <c r="B333" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <f>$A$331-$B$331*B334</f>
+        <v>416</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <f t="shared" ref="A335:A337" si="10">$A$331-$B$331*B335</f>
+        <v>256</v>
+      </c>
+      <c r="B335">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="B336">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="B337">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>342</v>
+      </c>
+      <c r="B350">
+        <f>5/4</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351" s="46"/>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>98</v>
+      </c>
+      <c r="B352" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <f>$A$350-$B$350*B353</f>
+        <v>342</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <f t="shared" ref="A354:A356" si="11">$A$350-$B$350*B354</f>
+        <v>217</v>
+      </c>
+      <c r="B354">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="B355">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <f t="shared" si="11"/>
+        <v>29.5</v>
+      </c>
+      <c r="B356">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="46">
+        <v>3.44</v>
+      </c>
+      <c r="B369" s="46"/>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>100</v>
+      </c>
+      <c r="B370" t="s">
+        <v>101</v>
+      </c>
+      <c r="C370" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>115</v>
+      </c>
+      <c r="B371">
+        <v>80</v>
+      </c>
+      <c r="C371">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>103</v>
+      </c>
+      <c r="B372" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <f>$A$368+$C$371*B373</f>
+        <v>60</v>
+      </c>
+      <c r="B373">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <f t="shared" ref="A374:A375" si="12">$A$368+$C$371*B374</f>
+        <v>80</v>
+      </c>
+      <c r="B374">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="B375">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="46">
+        <v>3.45</v>
+      </c>
+      <c r="B389" s="46"/>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>100</v>
+      </c>
+      <c r="B390" t="s">
+        <v>101</v>
+      </c>
+      <c r="C390" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>225</v>
+      </c>
+      <c r="B391">
+        <v>210</v>
+      </c>
+      <c r="C391">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <f>$A$388+$C$391*B393</f>
+        <v>140</v>
+      </c>
+      <c r="B393">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <f t="shared" ref="A394:A395" si="13">$A$388+$C$391*B394</f>
+        <v>210</v>
+      </c>
+      <c r="B394">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <f t="shared" si="13"/>
+        <v>245</v>
+      </c>
+      <c r="B395">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="46">
+        <v>3.46</v>
+      </c>
+      <c r="B407" s="46"/>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>100</v>
+      </c>
+      <c r="B408" t="s">
+        <v>101</v>
+      </c>
+      <c r="C408" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A389:B389"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A351:B351"/>
     <mergeCell ref="A277:B277"/>
     <mergeCell ref="A295:B295"/>
     <mergeCell ref="A1:B1"/>
@@ -40882,8 +47071,6 @@
     <mergeCell ref="A258:B258"/>
     <mergeCell ref="A202:B202"/>
     <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A184:B184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB8236-9888-4E6D-953D-A0C13F715AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367DD02-7BC4-4878-82D1-D25B94F5EF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>C=52.5+0.7(Y)</t>
+  </si>
+  <si>
+    <t>C=98+0.8(Y)</t>
+  </si>
+  <si>
+    <t>C=15+0.9(Y)</t>
   </si>
 </sst>
 </file>
@@ -16835,6 +16841,1068 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7BDB-4D23-B69D-CDC9E55073DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$410</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=98+0.8(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$411:$B$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$411:$A$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EDB-4B5E-8B43-715429E1D59A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Ingreso (Y) </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Consumo (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Función de consumo.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11376159230096236"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.57540135608048981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$429</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=15+0.9(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$430:$B$432</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$430:$A$432</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D725-4726-8032-FA6AA31107A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21477,6 +22545,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -37111,6 +38259,1108 @@
 </file>
 
 <file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -42305,6 +44555,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Gráfico 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9D6C49-FF9A-44C3-BB9A-39D3A8D6C6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Gráfico 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39E3295-AA6D-44D0-AA7C-1A23BFE1E1CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -45281,11 +47607,6 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -45293,6 +47614,11 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45303,10 +47629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -47025,7 +49351,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>52.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -47045,8 +49371,141 @@
         <v>102</v>
       </c>
     </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>540</v>
+      </c>
+      <c r="B409">
+        <v>530</v>
+      </c>
+      <c r="C409">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>105</v>
+      </c>
+      <c r="B410" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <f>$A$406+$C$409*B411</f>
+        <v>370</v>
+      </c>
+      <c r="B411">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <f t="shared" ref="A412:A413" si="14">$A$406+$C$409*B412</f>
+        <v>530</v>
+      </c>
+      <c r="B412">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <f t="shared" si="14"/>
+        <v>690</v>
+      </c>
+      <c r="B413">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="46">
+        <v>3.47</v>
+      </c>
+      <c r="B426" s="46"/>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>100</v>
+      </c>
+      <c r="B427" t="s">
+        <v>101</v>
+      </c>
+      <c r="C427" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>350</v>
+      </c>
+      <c r="B428">
+        <v>330</v>
+      </c>
+      <c r="C428">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>106</v>
+      </c>
+      <c r="B429" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <f>$A$425+$C$428*B430</f>
+        <v>60</v>
+      </c>
+      <c r="B430">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <f t="shared" ref="A431:A432" si="15">$A$425+$C$428*B431</f>
+        <v>240</v>
+      </c>
+      <c r="B431">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <f t="shared" si="15"/>
+        <v>330</v>
+      </c>
+      <c r="B432">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="46">
+        <v>3.48</v>
+      </c>
+      <c r="B446" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="A426:B426"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A369:B369"/>
     <mergeCell ref="A389:B389"/>
     <mergeCell ref="A407:B407"/>
@@ -47057,17 +49516,6 @@
     <mergeCell ref="A351:B351"/>
     <mergeCell ref="A277:B277"/>
     <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A258:B258"/>
     <mergeCell ref="A202:B202"/>
     <mergeCell ref="A221:B221"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367DD02-7BC4-4878-82D1-D25B94F5EF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1458B420-99B3-47F7-ACE7-EA9FCF1B9364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
     <sheet name="Ejercicio 2.83" sheetId="1" r:id="rId2"/>
     <sheet name="Ejercicios 3.1-3.11" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejercicios 3.12-3.47" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2997,7 +2997,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$2</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3044,7 +3044,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$3:$B$8</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3071,7 +3071,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$3:$A$8</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3519,7 +3519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$20</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3566,7 +3566,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$21:$B$26</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$21:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3593,7 +3593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$21:$A$26</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$21:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4041,7 +4041,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$K$27</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$K$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4085,7 +4085,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$37:$B$42</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$37:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4112,7 +4112,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$37:$A$42</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$37:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4560,7 +4560,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$52</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4607,7 +4607,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$53:$B$58</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$53:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4634,7 +4634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$53:$A$58</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$53:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5082,7 +5082,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$52</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5129,7 +5129,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$71:$B$76</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$71:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5156,7 +5156,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$71:$A$76</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$71:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5604,7 +5604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$52</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5651,7 +5651,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$87:$B$92</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$87:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5678,7 +5678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$87:$A$92</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$87:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6126,7 +6126,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$104</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6175,7 +6175,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$105:$B$108</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$105:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6193,7 +6193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$105:$A$108</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$105:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6221,7 +6221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$104</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6268,7 +6268,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$C$105:$C$108</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$105:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6286,7 +6286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$105:$A$108</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$105:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7384,7 +7384,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$118</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$118</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7433,7 +7433,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$119:$B$122</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$119:$B$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7454,7 +7454,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$119:$A$122</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$119:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7485,7 +7485,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$118</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$118</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7532,7 +7532,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$C$119:$C$122</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$119:$C$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7553,7 +7553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$119:$A$122</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$119:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8034,7 +8034,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$135</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$135</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8083,7 +8083,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$136:$B$140</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$136:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8107,7 +8107,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$136:$A$140</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$136:$A$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8141,7 +8141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$135</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$135</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8188,7 +8188,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$C$136:$C$140</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$136:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8212,7 +8212,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$136:$A$140</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$136:$A$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8696,7 +8696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$151</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8745,7 +8745,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$152:$B$156</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$152:$B$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8769,7 +8769,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$152:$A$156</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$152:$A$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9237,7 +9237,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$167</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9286,7 +9286,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$168:$B$171</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$168:$B$171</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9307,7 +9307,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$168:$A$171</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$168:$A$171</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9338,7 +9338,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$167</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9385,7 +9385,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$D$168:$D$171</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$D$168:$D$171</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9406,7 +9406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$168:$C$171</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$168:$C$171</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9875,7 +9875,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$187</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$187</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9924,7 +9924,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$188:$B$193</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$188:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9951,7 +9951,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$188:$A$193</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$188:$A$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9988,7 +9988,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$187</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$187</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10035,7 +10035,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$D$188:$D$193</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$D$188:$D$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10062,7 +10062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$188:$C$193</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$188:$C$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10537,7 +10537,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$205</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$205</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10586,7 +10586,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$206:$B$209</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$206:$B$209</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10607,7 +10607,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$206:$A$209</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$206:$A$209</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10638,7 +10638,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$205</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$205</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10685,7 +10685,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$D$206:$D$209</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$D$206:$D$209</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10706,7 +10706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$206:$C$209</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$206:$C$209</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11175,7 +11175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$224</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11224,7 +11224,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$225:$B$226</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$225:$B$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11239,7 +11239,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$225:$A$226</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$225:$A$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11264,7 +11264,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$224</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11311,7 +11311,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$D$225:$D$226</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$D$225:$D$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11326,7 +11326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$225:$C$226</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$225:$C$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11789,7 +11789,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$243</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$243</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11838,7 +11838,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$244:$B$245</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$244:$B$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11853,7 +11853,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$244:$A$245</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$244:$A$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11878,7 +11878,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$243</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$243</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11925,7 +11925,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$D$244:$D$245</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$D$244:$D$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -11940,7 +11940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$244:$C$245</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$C$244:$C$245</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -12405,7 +12405,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$261</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$261</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12454,7 +12454,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$262:$B$263</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$262:$B$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -12469,7 +12469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$262:$A$263</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$262:$A$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -12930,7 +12930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$278</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$278</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12979,7 +12979,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$279:$A$282</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$279:$A$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13000,7 +13000,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$B$279:$B$282</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$279:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14075,7 +14075,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$296</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$296</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14124,7 +14124,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$297:$A$300</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$297:$A$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14145,7 +14145,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$B$297:$B$300</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$297:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14612,7 +14612,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$313</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$313</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14661,7 +14661,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$314:$A$317</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$314:$A$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14682,7 +14682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$B$314:$B$317</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$314:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -15149,7 +15149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$333</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$333</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15198,7 +15198,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$334:$A$337</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$334:$A$337</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -15219,7 +15219,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$B$334:$B$337</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$334:$B$337</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -15686,7 +15686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$352</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$352</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15735,7 +15735,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$353:$A$356</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$353:$A$356</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -15756,7 +15756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$B$353:$B$356</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$353:$B$356</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -16223,7 +16223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$372</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$372</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16272,7 +16272,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$373:$B$375</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$373:$B$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -16290,7 +16290,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$373:$A$375</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$373:$A$375</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -16754,7 +16754,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$392</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$392</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16803,7 +16803,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$393:$B$395</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$393:$B$395</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -16821,7 +16821,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$393:$A$395</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$393:$A$395</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -17285,7 +17285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$410</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$410</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17334,7 +17334,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$411:$B$413</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$411:$B$413</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -17352,7 +17352,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$411:$A$413</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$411:$A$413</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -17816,7 +17816,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$429</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$429</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17865,7 +17865,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$B$430:$B$432</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$B$430:$B$432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -17883,7 +17883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$A$430:$A$432</c:f>
+              <c:f>'Ejercicios 3.12-3.47'!$A$430:$A$432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -47607,6 +47607,11 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -47614,11 +47619,6 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47629,10 +47629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3DCD6C-8C16-46BB-BE84-B4869C965D7A}">
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:B446"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49485,27 +49485,25 @@
         <v>350</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
-      <c r="A446" s="46">
-        <v>3.48</v>
-      </c>
-      <c r="B446" s="46"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A426:B426"/>
-    <mergeCell ref="A446:B446"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A369:B369"/>
     <mergeCell ref="A389:B389"/>
     <mergeCell ref="A407:B407"/>
@@ -49514,11 +49512,6 @@
     <mergeCell ref="A312:B312"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A221:B221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ConsultaDeDatos.xlsx
+++ b/ConsultaDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\Fundamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C3F3BB-66FB-47CB-9655-6C46B650578E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCCCD3-5C9C-4D15-AA85-D656ABED19C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{D981B6FC-7059-4534-899D-D6159089EF04}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>Deflactor implícito del PIB</t>
   </si>
@@ -24610,8 +24610,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -24632,20 +24634,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$136:$A$138</c:f>
@@ -24704,8 +24692,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -24726,20 +24717,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$140:$A$142</c:f>
@@ -24798,8 +24775,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -24820,19 +24800,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$144:$A$146</c:f>
@@ -25153,28 +25120,1951 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Funciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20713167104111985"/>
-          <c:y val="0.92187445319335082"/>
-          <c:w val="0.64711832895888011"/>
-          <c:h val="7.8125546806649182E-2"/>
+          <c:x val="9.987270341207348E-2"/>
+          <c:y val="0.1413425925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
         </c:manualLayout>
       </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$150</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$151:$A$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$151:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A22-4F88-8097-0430B9C59873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$155:$A$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$155:$B$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6A22-4F88-8097-0430B9C59873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$159</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$159:$A$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$159:$B$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7037037037037035E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6296296296296294E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6A22-4F88-8097-0430B9C59873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>x </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Funciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.987270341207348E-2"/>
+          <c:y val="0.1413425925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$166:$A$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$166:$B$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65B4-4001-8D02-1AC47DBB3AD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$170</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$170:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$170:$B$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65B4-4001-8D02-1AC47DBB3AD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>x </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Funciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.987270341207348E-2"/>
+          <c:y val="0.1413425925925926"/>
+          <c:w val="0.84734951881014875"/>
+          <c:h val="0.61706802274715655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$181</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$182:$A$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$182:$B$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1860-4A2F-A634-74CC9FA50282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$186</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$186:$A$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$186:$B$189</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1860-4A2F-A634-74CC9FA50282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$190</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$190:$A$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$190:$B$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1860-4A2F-A634-74CC9FA50282}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="689605439"/>
+        <c:axId val="634792095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="689605439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>x </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634792095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="634792095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689605439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29447,6 +31337,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors48.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -51102,6 +53112,1659 @@
 </file>
 
 <file path=xl/charts/style45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style48.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -56130,6 +59793,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8B379C-3A52-4251-931C-60BF608664A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6C9F69-7EA6-4E37-9117-FC0DBA1224CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C606FE4C-E828-4B31-BED0-5C0790B92A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -59106,6 +62883,11 @@
     <sortCondition ref="D69:D77"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A143:F143"/>
     <mergeCell ref="A159:F159"/>
     <mergeCell ref="A176:F176"/>
@@ -59113,11 +62895,6 @@
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60986,6 +64763,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A426:B426"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A150:B150"/>
@@ -61001,16 +64787,7 @@
     <mergeCell ref="A312:B312"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A221:B221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -61020,13 +64797,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B454205-E29C-43D7-AC57-F06E9D79FEA5}">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="46">
@@ -62022,7 +65802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>3</v>
       </c>
@@ -62031,7 +65811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>9</v>
       </c>
@@ -62040,8 +65820,293 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="46">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B149" s="46"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>108</v>
+      </c>
+      <c r="B150" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <f>1/A151</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ref="B152:B153" si="30">1/A152</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="30"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <f>1/A155^2</f>
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ref="B156:B157" si="31">1/A156^2</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="31"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <f>1/A159^3</f>
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ref="B160:B161" si="32">1/A160^3</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="32"/>
+        <v>4.6296296296296294E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="46">
+        <v>4.28</v>
+      </c>
+      <c r="B164" s="46"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B165" t="s">
+        <v>107</v>
+      </c>
+      <c r="C165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <f>1/(1-A166)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ref="B167:B168" si="33">1/(1-A167)</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="33"/>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <f>1/(1-A170^2)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ref="B171:B172" si="34">1/(1-A171^2)</f>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="34"/>
+        <v>-6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="46">
+        <v>4.29</v>
+      </c>
+      <c r="B180" s="46"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181" t="s">
+        <v>107</v>
+      </c>
+      <c r="C181" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <f>1/A182^2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ref="B183:B184" si="35">1/A183^2</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="35"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <f>3/(A186^2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ref="B187:B188" si="36">3/(A187^2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="36"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <f>6/(A190^2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ref="B191:B192" si="37">6/(A191^2)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="37"/>
+        <v>0.375</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A180:B180"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A134:B134"/>
     <mergeCell ref="A1:B1"/>
